--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>File Name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>mobile_engagement_icon.png</t>
   </si>
   <si>
+    <t>2016-05-26 05:24:21</t>
+  </si>
+  <si>
     <t>AbsoluteUrl.md</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 05:24:18</t>
   </si>
   <si>
     <t>openpublishing\test\redirectUrl</t>
@@ -1210,12 +1216,12 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>10</v>
@@ -1232,7 +1238,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -1317,7 +1323,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -1385,7 +1391,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -1419,7 +1425,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -1535,49 +1541,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1591,40 +1597,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1638,40 +1644,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -1685,40 +1691,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1732,40 +1738,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1779,40 +1785,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1826,40 +1832,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1873,40 +1879,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1920,40 +1926,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1967,40 +1973,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -2014,40 +2020,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2061,40 +2067,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -2108,40 +2114,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -2155,40 +2161,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -2202,40 +2208,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -2249,40 +2255,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -2296,40 +2302,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="N17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -2343,40 +2349,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -2390,40 +2396,40 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -2437,40 +2443,40 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -2484,40 +2490,40 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -2531,40 +2537,40 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -2578,40 +2584,40 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -2625,40 +2631,40 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -2672,40 +2678,40 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -2719,40 +2725,40 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -2766,40 +2772,40 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -2813,40 +2819,40 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -2860,40 +2866,40 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="N29" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -2907,40 +2913,40 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -2954,40 +2960,40 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -3001,40 +3007,40 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -3048,40 +3054,40 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -3095,45 +3101,45 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>10</v>
@@ -3142,45 +3148,45 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -3189,45 +3195,45 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -3236,40 +3242,40 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -3283,45 +3289,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -3330,45 +3336,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -3377,45 +3383,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -3424,45 +3430,45 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -3471,40 +3477,40 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -3518,45 +3524,45 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -3565,45 +3571,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -3612,40 +3618,40 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -3659,45 +3665,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -3706,45 +3712,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -3753,40 +3759,40 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3873,49 +3879,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -3929,40 +3935,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -3976,40 +3982,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -4023,40 +4029,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -4070,40 +4076,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -4117,40 +4123,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -4164,40 +4170,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -4211,40 +4217,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -4258,40 +4264,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -4305,40 +4311,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -4352,40 +4358,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -4399,40 +4405,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -4446,40 +4452,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -4493,40 +4499,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -4540,40 +4546,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -4587,40 +4593,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -4634,40 +4640,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="N17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -4681,40 +4687,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -4728,40 +4734,40 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -4775,40 +4781,40 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -4822,40 +4828,40 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -4869,40 +4875,40 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -4916,40 +4922,40 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -4963,40 +4969,40 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -5010,40 +5016,40 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -5057,40 +5063,40 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -5104,40 +5110,40 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -5151,40 +5157,40 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -5198,40 +5204,40 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="N29" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -5245,40 +5251,40 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -5292,40 +5298,40 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -5339,40 +5345,40 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -5386,40 +5392,40 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -5433,45 +5439,45 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>10</v>
@@ -5480,45 +5486,45 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -5527,45 +5533,45 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -5574,40 +5580,40 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -5621,45 +5627,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -5668,45 +5674,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -5715,45 +5721,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -5762,45 +5768,45 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -5809,40 +5815,40 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -5856,45 +5862,45 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -5903,45 +5909,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -5950,40 +5956,40 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -5997,45 +6003,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -6044,45 +6050,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -6091,40 +6097,40 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -139,7 +139,7 @@
     <t>mobile_engagement_icon.png</t>
   </si>
   <si>
-    <t>2016-05-26 05:24:21</t>
+    <t>2016-05-26 05:54:32</t>
   </si>
   <si>
     <t>AbsoluteUrl.md</t>
@@ -367,7 +367,7 @@
     <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-05-26 05:24:18</t>
+    <t>2016-05-26 05:54:30</t>
   </si>
   <si>
     <t>openpublishing\test\redirectUrl</t>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>File Name</t>
   </si>
@@ -88,6 +88,18 @@
     <t>single-topic.md</t>
   </si>
   <si>
+    <t>UM-New-Content-Experiment.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 09:52:23</t>
+  </si>
+  <si>
+    <t>UM-Prerequisite.png</t>
+  </si>
+  <si>
+    <t>users-manual-content.md</t>
+  </si>
+  <si>
     <t>ATA_Center_Configuration.JPG</t>
   </si>
   <si>
@@ -289,6 +301,21 @@
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
   </si>
   <si>
+    <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 09:52:21</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\users-manual-content.md</t>
+  </si>
+  <si>
+    <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
+  </si>
+  <si>
+    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
+  </si>
+  <si>
     <t>openpublishing\test\conceptual\Image</t>
   </si>
   <si>
@@ -449,6 +476,9 @@
   </si>
   <si>
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
   </si>
   <si>
     <t>index.c9c0369d0b155b081723894540fda2e788d91baf.zh-cn.xlf</t>
@@ -565,8 +595,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O48" headerRowCount="1">
-  <autoFilter ref="A1:O48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O51" headerRowCount="1">
+  <autoFilter ref="A1:O51"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -589,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O48" headerRowCount="1">
-  <autoFilter ref="A1:O48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O51" headerRowCount="1">
+  <autoFilter ref="A1:O51"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -613,8 +643,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E48" headerRowCount="1">
-  <autoFilter ref="A1:E48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E51" headerRowCount="1">
+  <autoFilter ref="A1:E51"/>
   <tableColumns count="5">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -628,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -901,16 +931,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -918,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>7</v>
@@ -927,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -935,16 +965,16 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -952,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
@@ -966,10 +996,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
@@ -983,10 +1013,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
@@ -1000,10 +1030,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
@@ -1017,10 +1047,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
@@ -1034,10 +1064,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
@@ -1051,10 +1081,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
@@ -1068,10 +1098,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
@@ -1085,7 +1115,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
@@ -1102,10 +1132,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
@@ -1119,10 +1149,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
@@ -1136,10 +1166,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
@@ -1153,7 +1183,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>6</v>
@@ -1170,7 +1200,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -1187,10 +1217,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
@@ -1204,10 +1234,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>7</v>
@@ -1216,15 +1246,15 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
@@ -1238,7 +1268,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -1255,7 +1285,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -1267,12 +1297,12 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -1289,7 +1319,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -1306,7 +1336,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -1323,7 +1353,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -1340,7 +1370,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -1357,7 +1387,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -1374,7 +1404,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -1391,7 +1421,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -1425,7 +1455,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -1442,7 +1472,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -1454,6 +1484,57 @@
         <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1473,39 +1554,42 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="ATA_Center_Configuration.JPG" r:id="rId16"/>
-    <hyperlink ref="A17" display="ATA_Config_GW_Settings.jpg" r:id="rId17"/>
-    <hyperlink ref="A18" display="ATA_config_icon.JPG" r:id="rId18"/>
-    <hyperlink ref="A19" display="ATA_Domain_Connectivity_User.JPG" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Gateway_Configuration.JPG" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_performance_monitoring_add_counters.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_VPN_Subnets.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATAGWDomainController.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="index.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="large.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="small.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="ui-components.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="azure_active_directory_icon.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="conditional access_exchange_icon.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="intune_byod_icon.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="mobile_devices_icon.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="mobile_engagement_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="index.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="index.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="AbsoluteUrl.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="AbsoluteUrlWithAAD.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="EmptyRelativeUrl.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="InvalidAbsoluteUrl.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="InvalidRelativeUrl.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="RelativePage.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="RelativeUrl.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="index.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="contacts-operations.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="entity-and-complex-type-reference.md" r:id="rId45"/>
+    <hyperlink ref="A16" display="UM-New-Content-Experiment.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-Prerequisite.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="users-manual-content.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="ATA_Center_Configuration.JPG" r:id="rId19"/>
+    <hyperlink ref="A20" display="ATA_Config_GW_Settings.jpg" r:id="rId20"/>
+    <hyperlink ref="A21" display="ATA_config_icon.JPG" r:id="rId21"/>
+    <hyperlink ref="A22" display="ATA_Domain_Connectivity_User.JPG" r:id="rId22"/>
+    <hyperlink ref="A23" display="ATA_Gateway_Configuration.JPG" r:id="rId23"/>
+    <hyperlink ref="A24" display="ATA_performance_monitoring_add_counters.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="ATA_VPN_Subnets.JPG" r:id="rId25"/>
+    <hyperlink ref="A26" display="ATAGWDomainController.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="large.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="small.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="ui-components.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="azure_active_directory_icon.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="conditional access_exchange_icon.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="intune_byod_icon.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="mobile_devices_icon.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="mobile_engagement_icon.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="index.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="index.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="AbsoluteUrl.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="AbsoluteUrlWithAAD.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="EmptyRelativeUrl.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="index.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="InvalidAbsoluteUrl.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="InvalidRelativeUrl.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="RelativePage.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="RelativeUrl.md" r:id="rId45"/>
     <hyperlink ref="A46" display="index.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="TOC.md" r:id="rId48"/>
+    <hyperlink ref="A47" display="contacts-operations.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="entity-and-complex-type-reference.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1516,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,49 +1625,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -1597,40 +1681,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -1644,40 +1728,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1691,40 +1775,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1738,40 +1822,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1785,40 +1869,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -1832,40 +1916,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -1879,40 +1963,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1926,40 +2010,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1973,40 +2057,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -2020,40 +2104,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2067,40 +2151,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -2114,40 +2198,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2161,40 +2245,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2208,40 +2292,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -2249,46 +2333,46 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -2296,46 +2380,46 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -2343,46 +2427,46 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -2390,380 +2474,380 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
@@ -2772,186 +2856,186 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>6</v>
@@ -2960,45 +3044,45 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -3007,95 +3091,95 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>7</v>
@@ -3104,89 +3188,89 @@
         <v>115</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -3195,45 +3279,45 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -3242,45 +3326,45 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -3289,45 +3373,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -3336,45 +3420,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -3383,45 +3467,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -3430,45 +3514,45 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -3477,45 +3561,45 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -3527,42 +3611,42 @@
         <v>127</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -3571,45 +3655,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -3618,40 +3702,40 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -3665,45 +3749,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -3712,45 +3796,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -3759,40 +3843,181 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N48" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="0" t="s">
-        <v>68</v>
+      <c r="H49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3811,39 +4036,42 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="ATA_Center_Configuration.JPG" r:id="rId16"/>
-    <hyperlink ref="A17" display="ATA_Config_GW_Settings.jpg" r:id="rId17"/>
-    <hyperlink ref="A18" display="ATA_config_icon.JPG" r:id="rId18"/>
-    <hyperlink ref="A19" display="ATA_Domain_Connectivity_User.JPG" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Gateway_Configuration.JPG" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_performance_monitoring_add_counters.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_VPN_Subnets.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATAGWDomainController.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="index.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="large.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="small.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="ui-components.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="azure_active_directory_icon.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="conditional access_exchange_icon.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="intune_byod_icon.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="mobile_devices_icon.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="mobile_engagement_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="index.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="index.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="AbsoluteUrl.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="AbsoluteUrlWithAAD.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="EmptyRelativeUrl.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="InvalidAbsoluteUrl.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="InvalidRelativeUrl.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="RelativePage.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="RelativeUrl.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="index.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="contacts-operations.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="entity-and-complex-type-reference.md" r:id="rId45"/>
+    <hyperlink ref="A16" display="UM-New-Content-Experiment.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-Prerequisite.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="users-manual-content.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="ATA_Center_Configuration.JPG" r:id="rId19"/>
+    <hyperlink ref="A20" display="ATA_Config_GW_Settings.jpg" r:id="rId20"/>
+    <hyperlink ref="A21" display="ATA_config_icon.JPG" r:id="rId21"/>
+    <hyperlink ref="A22" display="ATA_Domain_Connectivity_User.JPG" r:id="rId22"/>
+    <hyperlink ref="A23" display="ATA_Gateway_Configuration.JPG" r:id="rId23"/>
+    <hyperlink ref="A24" display="ATA_performance_monitoring_add_counters.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="ATA_VPN_Subnets.JPG" r:id="rId25"/>
+    <hyperlink ref="A26" display="ATAGWDomainController.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="large.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="small.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="ui-components.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="azure_active_directory_icon.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="conditional access_exchange_icon.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="intune_byod_icon.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="mobile_devices_icon.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="mobile_engagement_icon.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="index.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="index.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="AbsoluteUrl.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="AbsoluteUrlWithAAD.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="EmptyRelativeUrl.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="index.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="InvalidAbsoluteUrl.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="InvalidRelativeUrl.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="RelativePage.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="RelativeUrl.md" r:id="rId45"/>
     <hyperlink ref="A46" display="index.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="TOC.md" r:id="rId48"/>
+    <hyperlink ref="A47" display="contacts-operations.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="entity-and-complex-type-reference.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3854,7 +4082,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3879,49 +4107,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -3935,40 +4163,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -3982,40 +4210,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -4029,40 +4257,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -4076,40 +4304,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -4123,40 +4351,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -4170,40 +4398,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -4217,40 +4445,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -4264,40 +4492,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -4311,40 +4539,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -4358,40 +4586,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -4405,40 +4633,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -4452,40 +4680,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -4499,40 +4727,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -4546,40 +4774,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -4587,46 +4815,46 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -4634,46 +4862,46 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -4681,46 +4909,46 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -4728,380 +4956,380 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
@@ -5110,186 +5338,186 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>6</v>
@@ -5298,45 +5526,45 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -5345,95 +5573,95 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>7</v>
@@ -5442,89 +5670,89 @@
         <v>115</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>76</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
@@ -5533,45 +5761,45 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -5580,45 +5808,45 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -5627,45 +5855,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -5674,45 +5902,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -5721,45 +5949,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -5768,45 +5996,45 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -5815,45 +6043,45 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -5865,42 +6093,42 @@
         <v>127</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -5909,45 +6137,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -5956,40 +6184,40 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -6003,45 +6231,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -6050,45 +6278,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -6097,40 +6325,181 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6149,39 +6518,42 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="ATA_Center_Configuration.JPG" r:id="rId16"/>
-    <hyperlink ref="A17" display="ATA_Config_GW_Settings.jpg" r:id="rId17"/>
-    <hyperlink ref="A18" display="ATA_config_icon.JPG" r:id="rId18"/>
-    <hyperlink ref="A19" display="ATA_Domain_Connectivity_User.JPG" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Gateway_Configuration.JPG" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_performance_monitoring_add_counters.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_VPN_Subnets.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATAGWDomainController.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="index.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="large.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="small.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="ui-components.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="azure_active_directory_icon.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="conditional access_exchange_icon.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="intune_byod_icon.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="mobile_devices_icon.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="mobile_engagement_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="index.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="index.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="AbsoluteUrl.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="AbsoluteUrlWithAAD.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="EmptyRelativeUrl.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="InvalidAbsoluteUrl.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="InvalidRelativeUrl.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="RelativePage.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="RelativeUrl.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="index.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="contacts-operations.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="entity-and-complex-type-reference.md" r:id="rId45"/>
+    <hyperlink ref="A16" display="UM-New-Content-Experiment.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-Prerequisite.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="users-manual-content.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="ATA_Center_Configuration.JPG" r:id="rId19"/>
+    <hyperlink ref="A20" display="ATA_Config_GW_Settings.jpg" r:id="rId20"/>
+    <hyperlink ref="A21" display="ATA_config_icon.JPG" r:id="rId21"/>
+    <hyperlink ref="A22" display="ATA_Domain_Connectivity_User.JPG" r:id="rId22"/>
+    <hyperlink ref="A23" display="ATA_Gateway_Configuration.JPG" r:id="rId23"/>
+    <hyperlink ref="A24" display="ATA_performance_monitoring_add_counters.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="ATA_VPN_Subnets.JPG" r:id="rId25"/>
+    <hyperlink ref="A26" display="ATAGWDomainController.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="large.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="small.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="ui-components.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="azure_active_directory_icon.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="conditional access_exchange_icon.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="intune_byod_icon.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="mobile_devices_icon.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="mobile_engagement_icon.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="index.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="index.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="AbsoluteUrl.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="AbsoluteUrlWithAAD.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="EmptyRelativeUrl.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="index.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="InvalidAbsoluteUrl.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="InvalidRelativeUrl.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="RelativePage.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="RelativeUrl.md" r:id="rId45"/>
     <hyperlink ref="A46" display="index.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="TOC.md" r:id="rId48"/>
+    <hyperlink ref="A47" display="contacts-operations.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="entity-and-complex-type-reference.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>File Name</t>
   </si>
@@ -88,6 +88,12 @@
     <t>single-topic.md</t>
   </si>
   <si>
+    <t>UM-Cleanup-Content-Experiment.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:19</t>
+  </si>
+  <si>
     <t>UM-New-Content-Experiment.png</t>
   </si>
   <si>
@@ -301,13 +307,19 @@
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
   </si>
   <si>
+    <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:16</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\users-manual-content.md</t>
+  </si>
+  <si>
     <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
   </si>
   <si>
     <t>2016-05-26 09:52:21</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\users-manual-content.md</t>
   </si>
   <si>
     <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
@@ -595,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O51" headerRowCount="1">
-  <autoFilter ref="A1:O51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O52" headerRowCount="1">
+  <autoFilter ref="A1:O52"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -619,8 +631,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O51" headerRowCount="1">
-  <autoFilter ref="A1:O51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O52" headerRowCount="1">
+  <autoFilter ref="A1:O52"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -643,8 +655,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E51" headerRowCount="1">
-  <autoFilter ref="A1:E51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E52" headerRowCount="1">
+  <autoFilter ref="A1:E52"/>
   <tableColumns count="5">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -658,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -957,32 +969,32 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
@@ -991,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -999,7 +1011,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
@@ -1013,10 +1025,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
@@ -1030,10 +1042,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
@@ -1047,10 +1059,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
@@ -1064,10 +1076,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
@@ -1081,10 +1093,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
@@ -1098,10 +1110,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
@@ -1115,10 +1127,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>10</v>
@@ -1149,7 +1161,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -1166,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -1183,10 +1195,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
@@ -1200,7 +1212,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -1217,7 +1229,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
@@ -1234,7 +1246,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -1251,7 +1263,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
@@ -1268,10 +1280,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
@@ -1297,12 +1309,12 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -1314,12 +1326,12 @@
         <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -1336,7 +1348,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -1353,7 +1365,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -1370,7 +1382,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -1404,7 +1416,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -1421,7 +1433,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -1438,7 +1450,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -1455,7 +1467,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -1472,7 +1484,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -1489,7 +1501,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -1506,7 +1518,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -1523,7 +1535,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -1536,6 +1548,23 @@
       </c>
       <c r="E51" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1554,42 +1583,43 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-New-Content-Experiment.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-Prerequisite.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="users-manual-content.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="ATA_Center_Configuration.JPG" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Config_GW_Settings.jpg" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_config_icon.JPG" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_Domain_Connectivity_User.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATA_Gateway_Configuration.JPG" r:id="rId23"/>
-    <hyperlink ref="A24" display="ATA_performance_monitoring_add_counters.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="ATA_VPN_Subnets.JPG" r:id="rId25"/>
-    <hyperlink ref="A26" display="ATAGWDomainController.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="large.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="small.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="ui-components.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="azure_active_directory_icon.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="conditional access_exchange_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="intune_byod_icon.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="mobile_devices_icon.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="mobile_engagement_icon.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="index.md" r:id="rId36"/>
+    <hyperlink ref="A16" display="UM-Cleanup-Content-Experiment.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-New-Content-Experiment.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="UM-Prerequisite.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="users-manual-content.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="ATA_Center_Configuration.JPG" r:id="rId20"/>
+    <hyperlink ref="A21" display="ATA_Config_GW_Settings.jpg" r:id="rId21"/>
+    <hyperlink ref="A22" display="ATA_config_icon.JPG" r:id="rId22"/>
+    <hyperlink ref="A23" display="ATA_Domain_Connectivity_User.JPG" r:id="rId23"/>
+    <hyperlink ref="A24" display="ATA_Gateway_Configuration.JPG" r:id="rId24"/>
+    <hyperlink ref="A25" display="ATA_performance_monitoring_add_counters.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="ATA_VPN_Subnets.JPG" r:id="rId26"/>
+    <hyperlink ref="A27" display="ATAGWDomainController.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="large.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="small.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="ui-components.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="azure_active_directory_icon.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="conditional access_exchange_icon.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="intune_byod_icon.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="mobile_devices_icon.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="mobile_engagement_icon.png" r:id="rId36"/>
     <hyperlink ref="A37" display="index.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="AbsoluteUrl.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="AbsoluteUrlWithAAD.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="EmptyRelativeUrl.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="index.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="InvalidAbsoluteUrl.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="InvalidRelativeUrl.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="RelativePage.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="RelativeUrl.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="index.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="contacts-operations.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="entity-and-complex-type-reference.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="AbsoluteUrl.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="AbsoluteUrlWithAAD.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="EmptyRelativeUrl.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="index.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="InvalidAbsoluteUrl.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="InvalidRelativeUrl.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="RelativePage.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="RelativeUrl.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="index.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="contacts-operations.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="entity-and-complex-type-reference.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="index.md" r:id="rId50"/>
     <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="TOC.md" r:id="rId52"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1600,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1625,49 +1655,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1681,40 +1711,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -1728,40 +1758,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1775,40 +1805,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1822,40 +1852,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1869,40 +1899,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -1916,40 +1946,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1963,40 +1993,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -2010,40 +2040,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -2057,40 +2087,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -2104,40 +2134,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -2151,40 +2181,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -2198,40 +2228,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -2245,40 +2275,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2292,40 +2322,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2339,40 +2369,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -2386,134 +2416,134 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -2521,380 +2551,380 @@
         <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="N23" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>10</v>
@@ -2903,45 +2933,45 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -2950,45 +2980,45 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -2997,92 +3027,92 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -3091,45 +3121,45 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
@@ -3138,45 +3168,45 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -3185,45 +3215,45 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
@@ -3232,87 +3262,87 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="N35" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -3326,45 +3356,45 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -3373,45 +3403,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -3420,45 +3450,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -3467,45 +3497,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -3514,45 +3544,45 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -3561,45 +3591,45 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -3608,45 +3638,45 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -3655,45 +3685,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -3702,45 +3732,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -3749,45 +3779,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -3796,45 +3826,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -3843,45 +3873,45 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -3890,45 +3920,45 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -3937,45 +3967,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L50" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M50" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -3984,40 +4014,87 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L51" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M51" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4036,42 +4113,43 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-New-Content-Experiment.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-Prerequisite.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="users-manual-content.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="ATA_Center_Configuration.JPG" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Config_GW_Settings.jpg" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_config_icon.JPG" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_Domain_Connectivity_User.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATA_Gateway_Configuration.JPG" r:id="rId23"/>
-    <hyperlink ref="A24" display="ATA_performance_monitoring_add_counters.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="ATA_VPN_Subnets.JPG" r:id="rId25"/>
-    <hyperlink ref="A26" display="ATAGWDomainController.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="large.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="small.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="ui-components.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="azure_active_directory_icon.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="conditional access_exchange_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="intune_byod_icon.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="mobile_devices_icon.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="mobile_engagement_icon.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="index.md" r:id="rId36"/>
+    <hyperlink ref="A16" display="UM-Cleanup-Content-Experiment.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-New-Content-Experiment.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="UM-Prerequisite.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="users-manual-content.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="ATA_Center_Configuration.JPG" r:id="rId20"/>
+    <hyperlink ref="A21" display="ATA_Config_GW_Settings.jpg" r:id="rId21"/>
+    <hyperlink ref="A22" display="ATA_config_icon.JPG" r:id="rId22"/>
+    <hyperlink ref="A23" display="ATA_Domain_Connectivity_User.JPG" r:id="rId23"/>
+    <hyperlink ref="A24" display="ATA_Gateway_Configuration.JPG" r:id="rId24"/>
+    <hyperlink ref="A25" display="ATA_performance_monitoring_add_counters.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="ATA_VPN_Subnets.JPG" r:id="rId26"/>
+    <hyperlink ref="A27" display="ATAGWDomainController.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="large.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="small.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="ui-components.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="azure_active_directory_icon.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="conditional access_exchange_icon.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="intune_byod_icon.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="mobile_devices_icon.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="mobile_engagement_icon.png" r:id="rId36"/>
     <hyperlink ref="A37" display="index.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="AbsoluteUrl.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="AbsoluteUrlWithAAD.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="EmptyRelativeUrl.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="index.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="InvalidAbsoluteUrl.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="InvalidRelativeUrl.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="RelativePage.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="RelativeUrl.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="index.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="contacts-operations.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="entity-and-complex-type-reference.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="AbsoluteUrl.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="AbsoluteUrlWithAAD.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="EmptyRelativeUrl.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="index.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="InvalidAbsoluteUrl.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="InvalidRelativeUrl.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="RelativePage.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="RelativeUrl.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="index.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="contacts-operations.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="entity-and-complex-type-reference.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="index.md" r:id="rId50"/>
     <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="TOC.md" r:id="rId52"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -4082,7 +4160,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4107,49 +4185,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -4163,40 +4241,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -4210,40 +4288,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -4257,40 +4335,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -4304,40 +4382,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -4351,40 +4429,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -4398,40 +4476,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -4445,40 +4523,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -4492,40 +4570,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -4539,40 +4617,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -4586,40 +4664,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -4633,40 +4711,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -4680,40 +4758,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -4727,40 +4805,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -4774,40 +4852,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -4821,40 +4899,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -4868,134 +4946,134 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O18" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -5003,380 +5081,380 @@
         <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="N23" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O27" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>10</v>
@@ -5385,45 +5463,45 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -5432,45 +5510,45 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -5479,92 +5557,92 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -5573,45 +5651,45 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
@@ -5620,45 +5698,45 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -5667,45 +5745,45 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
@@ -5714,87 +5792,87 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="N35" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -5808,45 +5886,45 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -5855,45 +5933,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -5902,45 +5980,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -5949,45 +6027,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -5996,45 +6074,45 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
@@ -6043,45 +6121,45 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -6090,45 +6168,45 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -6137,45 +6215,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -6184,45 +6262,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -6231,45 +6309,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -6278,45 +6356,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>80</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -6325,45 +6403,45 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -6372,45 +6450,45 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -6419,45 +6497,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L50" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M50" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -6466,40 +6544,87 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L51" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M51" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6518,42 +6643,43 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-New-Content-Experiment.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-Prerequisite.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="users-manual-content.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="ATA_Center_Configuration.JPG" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Config_GW_Settings.jpg" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_config_icon.JPG" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_Domain_Connectivity_User.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATA_Gateway_Configuration.JPG" r:id="rId23"/>
-    <hyperlink ref="A24" display="ATA_performance_monitoring_add_counters.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="ATA_VPN_Subnets.JPG" r:id="rId25"/>
-    <hyperlink ref="A26" display="ATAGWDomainController.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="large.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="small.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="ui-components.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="azure_active_directory_icon.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="conditional access_exchange_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="intune_byod_icon.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="mobile_devices_icon.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="mobile_engagement_icon.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="index.md" r:id="rId36"/>
+    <hyperlink ref="A16" display="UM-Cleanup-Content-Experiment.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-New-Content-Experiment.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="UM-Prerequisite.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="users-manual-content.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="ATA_Center_Configuration.JPG" r:id="rId20"/>
+    <hyperlink ref="A21" display="ATA_Config_GW_Settings.jpg" r:id="rId21"/>
+    <hyperlink ref="A22" display="ATA_config_icon.JPG" r:id="rId22"/>
+    <hyperlink ref="A23" display="ATA_Domain_Connectivity_User.JPG" r:id="rId23"/>
+    <hyperlink ref="A24" display="ATA_Gateway_Configuration.JPG" r:id="rId24"/>
+    <hyperlink ref="A25" display="ATA_performance_monitoring_add_counters.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="ATA_VPN_Subnets.JPG" r:id="rId26"/>
+    <hyperlink ref="A27" display="ATAGWDomainController.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="large.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="small.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="ui-components.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="azure_active_directory_icon.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="conditional access_exchange_icon.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="intune_byod_icon.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="mobile_devices_icon.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="mobile_engagement_icon.png" r:id="rId36"/>
     <hyperlink ref="A37" display="index.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="AbsoluteUrl.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="AbsoluteUrlWithAAD.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="EmptyRelativeUrl.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="index.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="InvalidAbsoluteUrl.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="InvalidRelativeUrl.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="RelativePage.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="RelativeUrl.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="index.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="contacts-operations.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="entity-and-complex-type-reference.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="AbsoluteUrl.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="AbsoluteUrlWithAAD.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="EmptyRelativeUrl.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="index.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="InvalidAbsoluteUrl.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="InvalidRelativeUrl.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="RelativePage.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="RelativeUrl.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="index.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="contacts-operations.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="entity-and-complex-type-reference.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="index.md" r:id="rId50"/>
     <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="TOC.md" r:id="rId52"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>File Name</t>
   </si>
@@ -106,6 +106,9 @@
     <t>users-manual-content.md</t>
   </si>
   <si>
+    <t>2016-05-27 07:22:52</t>
+  </si>
+  <si>
     <t>ATA_Center_Configuration.JPG</t>
   </si>
   <si>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:22:49</t>
   </si>
   <si>
     <t>openpublishing\test\conceptual\Image</t>
@@ -1003,15 +1009,15 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>13</v>
@@ -1042,10 +1048,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
@@ -1059,10 +1065,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
@@ -1076,10 +1082,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -1110,10 +1116,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>6</v>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -1178,7 +1184,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -1195,7 +1201,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>10</v>
@@ -1212,7 +1218,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -1263,7 +1269,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
@@ -1280,7 +1286,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>6</v>
@@ -1326,12 +1332,12 @@
         <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -1348,7 +1354,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -1365,7 +1371,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -1399,7 +1405,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -1501,7 +1507,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -1535,7 +1541,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -1552,7 +1558,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -1655,49 +1661,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -1711,40 +1717,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1758,40 +1764,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1805,40 +1811,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1852,40 +1858,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1899,40 +1905,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1946,40 +1952,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1993,40 +1999,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -2040,40 +2046,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2087,40 +2093,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -2134,40 +2140,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -2181,40 +2187,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2228,40 +2234,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2275,40 +2281,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2322,40 +2328,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2369,40 +2375,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2416,40 +2422,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="N17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2463,40 +2469,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2510,92 +2516,92 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>13</v>
@@ -2604,186 +2610,186 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="N22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -2792,92 +2798,92 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>6</v>
@@ -2886,40 +2892,40 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -2933,45 +2939,45 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -2980,45 +2986,45 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -3027,45 +3033,45 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>10</v>
@@ -3074,45 +3080,45 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -3121,45 +3127,45 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
@@ -3168,45 +3174,45 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -3215,45 +3221,45 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="N34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
@@ -3262,45 +3268,45 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>6</v>
@@ -3309,40 +3315,40 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -3356,40 +3362,40 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -3403,45 +3409,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -3450,45 +3456,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -3497,45 +3503,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -3544,40 +3550,40 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -3591,45 +3597,45 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -3638,45 +3644,45 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -3685,45 +3691,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -3732,45 +3738,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -3779,40 +3785,40 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -3826,45 +3832,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -3873,45 +3879,45 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -3920,40 +3926,40 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -3967,45 +3973,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -4014,45 +4020,45 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -4061,40 +4067,40 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4185,49 +4191,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -4241,40 +4247,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -4288,40 +4294,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -4335,40 +4341,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -4382,40 +4388,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -4429,40 +4435,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -4476,40 +4482,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -4523,40 +4529,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -4570,40 +4576,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -4617,40 +4623,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -4664,40 +4670,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -4711,40 +4717,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -4758,40 +4764,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -4805,40 +4811,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -4852,40 +4858,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -4899,40 +4905,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -4946,40 +4952,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -4993,40 +4999,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -5040,92 +5046,92 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>13</v>
@@ -5134,186 +5140,186 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="N22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -5322,92 +5328,92 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>6</v>
@@ -5416,40 +5422,40 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -5463,45 +5469,45 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
@@ -5510,45 +5516,45 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
@@ -5557,45 +5563,45 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>10</v>
@@ -5604,45 +5610,45 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -5651,45 +5657,45 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
@@ -5698,45 +5704,45 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -5745,45 +5751,45 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="N34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
@@ -5792,45 +5798,45 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>6</v>
@@ -5839,40 +5845,40 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5886,40 +5892,40 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5933,45 +5939,45 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
@@ -5980,45 +5986,45 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
@@ -6027,45 +6033,45 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
@@ -6074,40 +6080,40 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -6121,45 +6127,45 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
@@ -6168,45 +6174,45 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -6215,45 +6221,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -6262,45 +6268,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -6309,40 +6315,40 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -6356,45 +6362,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -6403,45 +6409,45 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -6450,40 +6456,40 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -6497,45 +6503,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -6544,45 +6550,45 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -6591,40 +6597,40 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>File Name</t>
   </si>
@@ -88,6 +88,27 @@
     <t>single-topic.md</t>
   </si>
   <si>
+    <t>UM-AB-Portal-Experiment-New.png</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:09</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Experiments-Action.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Experiments.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metrics-Config.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metrics-Result.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metrics.png</t>
+  </si>
+  <si>
     <t>UM-Cleanup-Content-Experiment.png</t>
   </si>
   <si>
@@ -100,15 +121,15 @@
     <t>2016-05-26 09:52:23</t>
   </si>
   <si>
+    <t>UM-OP-Portal.png</t>
+  </si>
+  <si>
     <t>UM-Prerequisite.png</t>
   </si>
   <si>
     <t>users-manual-content.md</t>
   </si>
   <si>
-    <t>2016-05-27 07:22:52</t>
-  </si>
-  <si>
     <t>ATA_Center_Configuration.JPG</t>
   </si>
   <si>
@@ -310,28 +331,49 @@
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
   </si>
   <si>
+    <t>0944ca47792ca28872d79785b4ad482afc815db4.png</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:03</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\users-manual-content.md</t>
+  </si>
+  <si>
+    <t>5d3a37f233086af48eb656aee4089fc4cdb7b3ad.png</t>
+  </si>
+  <si>
+    <t>d0e283fc21dfe6cc56e2a7bf4d6d9f21721aa7bb.png</t>
+  </si>
+  <si>
+    <t>3ef8bdc8c711e0d812939e0839510959e135cbf2.png</t>
+  </si>
+  <si>
+    <t>a243078245ec47332f79cdd572df6526d2f632a6.png</t>
+  </si>
+  <si>
+    <t>ba8236c916168ef664ec671a88984d6522fdf900.png</t>
+  </si>
+  <si>
     <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
   </si>
   <si>
     <t>2016-05-26 14:53:16</t>
   </si>
   <si>
-    <t>openpublishing\test\abtesting\users-manual-content.md</t>
-  </si>
-  <si>
     <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
   </si>
   <si>
     <t>2016-05-26 09:52:21</t>
   </si>
   <si>
+    <t>6b9ff10a197ad5bb1849ccd5eba49a57e7dd20a0.png</t>
+  </si>
+  <si>
     <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
   </si>
   <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-27 07:22:49</t>
   </si>
   <si>
     <t>openpublishing\test\conceptual\Image</t>
@@ -613,8 +655,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O52" headerRowCount="1">
-  <autoFilter ref="A1:O52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O59" headerRowCount="1">
+  <autoFilter ref="A1:O59"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -637,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O52" headerRowCount="1">
-  <autoFilter ref="A1:O52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O59" headerRowCount="1">
+  <autoFilter ref="A1:O59"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -661,8 +703,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E52" headerRowCount="1">
-  <autoFilter ref="A1:E52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E59" headerRowCount="1">
+  <autoFilter ref="A1:E59"/>
   <tableColumns count="5">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -676,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,12 +1017,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -992,15 +1034,15 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
@@ -1009,15 +1051,15 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
@@ -1026,15 +1068,15 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
@@ -1043,32 +1085,32 @@
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
@@ -1077,15 +1119,15 @@
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
@@ -1094,12 +1136,12 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -1111,15 +1153,15 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
@@ -1128,15 +1170,15 @@
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>6</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
@@ -1150,10 +1192,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
@@ -1167,10 +1209,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
@@ -1184,10 +1226,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
@@ -1201,10 +1243,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
@@ -1218,7 +1260,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -1235,10 +1277,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
@@ -1252,7 +1294,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -1269,10 +1311,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
@@ -1289,7 +1331,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
@@ -1303,7 +1345,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -1320,7 +1362,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -1332,15 +1374,15 @@
         <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>7</v>
@@ -1354,10 +1396,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
@@ -1371,10 +1413,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>7</v>
@@ -1388,10 +1430,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>7</v>
@@ -1405,10 +1447,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>7</v>
@@ -1422,7 +1464,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -1439,7 +1481,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -1451,12 +1493,12 @@
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -1473,7 +1515,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -1490,7 +1532,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -1507,7 +1549,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -1524,7 +1566,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -1541,7 +1583,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -1558,7 +1600,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -1570,7 +1612,126 @@
         <v>7</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1589,43 +1750,50 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-Cleanup-Content-Experiment.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-New-Content-Experiment.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="UM-Prerequisite.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="users-manual-content.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Center_Configuration.JPG" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_Config_GW_Settings.jpg" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_config_icon.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATA_Domain_Connectivity_User.JPG" r:id="rId23"/>
-    <hyperlink ref="A24" display="ATA_Gateway_Configuration.JPG" r:id="rId24"/>
-    <hyperlink ref="A25" display="ATA_performance_monitoring_add_counters.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="ATA_VPN_Subnets.JPG" r:id="rId26"/>
-    <hyperlink ref="A27" display="ATAGWDomainController.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="large.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="small.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="ui-components.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="azure_active_directory_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="conditional access_exchange_icon.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="intune_byod_icon.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="mobile_devices_icon.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="mobile_engagement_icon.png" r:id="rId36"/>
-    <hyperlink ref="A37" display="index.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="AbsoluteUrl.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="AbsoluteUrlWithAAD.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="EmptyRelativeUrl.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="index.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="InvalidAbsoluteUrl.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="InvalidRelativeUrl.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="RelativePage.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="RelativeUrl.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="index.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="contacts-operations.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="entity-and-complex-type-reference.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="index.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId52"/>
+    <hyperlink ref="A16" display="UM-AB-Portal-Experiment-New.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-AB-Portal-Experiments-Action.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="UM-AB-Portal-Experiments.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="UM-AB-Portal-Metrics-Config.png" r:id="rId19"/>
+    <hyperlink ref="A20" display="UM-AB-Portal-Metrics-Result.png" r:id="rId20"/>
+    <hyperlink ref="A21" display="UM-AB-Portal-Metrics.png" r:id="rId21"/>
+    <hyperlink ref="A22" display="UM-Cleanup-Content-Experiment.png" r:id="rId22"/>
+    <hyperlink ref="A23" display="UM-New-Content-Experiment.png" r:id="rId23"/>
+    <hyperlink ref="A24" display="UM-OP-Portal.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="UM-Prerequisite.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="users-manual-content.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="ATA_Center_Configuration.JPG" r:id="rId27"/>
+    <hyperlink ref="A28" display="ATA_Config_GW_Settings.jpg" r:id="rId28"/>
+    <hyperlink ref="A29" display="ATA_config_icon.JPG" r:id="rId29"/>
+    <hyperlink ref="A30" display="ATA_Domain_Connectivity_User.JPG" r:id="rId30"/>
+    <hyperlink ref="A31" display="ATA_Gateway_Configuration.JPG" r:id="rId31"/>
+    <hyperlink ref="A32" display="ATA_performance_monitoring_add_counters.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="ATA_VPN_Subnets.JPG" r:id="rId33"/>
+    <hyperlink ref="A34" display="ATAGWDomainController.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="large.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="small.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="ui-components.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="azure_active_directory_icon.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="conditional access_exchange_icon.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="intune_byod_icon.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="mobile_devices_icon.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="mobile_engagement_icon.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="index.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="index.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="AbsoluteUrl.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="AbsoluteUrlWithAAD.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="EmptyRelativeUrl.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="InvalidAbsoluteUrl.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="InvalidRelativeUrl.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="RelativePage.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="RelativeUrl.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="index.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="contacts-operations.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="entity-and-complex-type-reference.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="TOC.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="TOC.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1636,7 +1804,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1661,49 +1829,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1717,40 +1885,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1764,40 +1932,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1811,40 +1979,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1858,40 +2026,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1905,40 +2073,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1952,40 +2120,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1999,40 +2167,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2046,40 +2214,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -2093,40 +2261,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -2140,40 +2308,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -2187,40 +2355,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -2234,40 +2402,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -2281,40 +2449,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -2328,40 +2496,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -2375,40 +2543,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -2422,45 +2590,45 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -2469,327 +2637,327 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="H20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="N20" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -2798,327 +2966,327 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -3127,92 +3295,92 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="N32" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -3221,87 +3389,87 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -3309,51 +3477,51 @@
         <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -3362,45 +3530,45 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -3412,277 +3580,277 @@
         <v>130</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F42" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="N42" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -3691,45 +3859,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -3738,45 +3906,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -3785,45 +3953,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -3832,45 +4000,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -3879,45 +4047,45 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -3926,45 +4094,45 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -3973,45 +4141,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -4020,45 +4188,45 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -4067,40 +4235,369 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4119,43 +4616,50 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-Cleanup-Content-Experiment.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-New-Content-Experiment.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="UM-Prerequisite.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="users-manual-content.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Center_Configuration.JPG" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_Config_GW_Settings.jpg" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_config_icon.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATA_Domain_Connectivity_User.JPG" r:id="rId23"/>
-    <hyperlink ref="A24" display="ATA_Gateway_Configuration.JPG" r:id="rId24"/>
-    <hyperlink ref="A25" display="ATA_performance_monitoring_add_counters.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="ATA_VPN_Subnets.JPG" r:id="rId26"/>
-    <hyperlink ref="A27" display="ATAGWDomainController.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="large.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="small.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="ui-components.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="azure_active_directory_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="conditional access_exchange_icon.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="intune_byod_icon.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="mobile_devices_icon.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="mobile_engagement_icon.png" r:id="rId36"/>
-    <hyperlink ref="A37" display="index.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="AbsoluteUrl.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="AbsoluteUrlWithAAD.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="EmptyRelativeUrl.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="index.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="InvalidAbsoluteUrl.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="InvalidRelativeUrl.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="RelativePage.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="RelativeUrl.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="index.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="contacts-operations.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="entity-and-complex-type-reference.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="index.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId52"/>
+    <hyperlink ref="A16" display="UM-AB-Portal-Experiment-New.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-AB-Portal-Experiments-Action.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="UM-AB-Portal-Experiments.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="UM-AB-Portal-Metrics-Config.png" r:id="rId19"/>
+    <hyperlink ref="A20" display="UM-AB-Portal-Metrics-Result.png" r:id="rId20"/>
+    <hyperlink ref="A21" display="UM-AB-Portal-Metrics.png" r:id="rId21"/>
+    <hyperlink ref="A22" display="UM-Cleanup-Content-Experiment.png" r:id="rId22"/>
+    <hyperlink ref="A23" display="UM-New-Content-Experiment.png" r:id="rId23"/>
+    <hyperlink ref="A24" display="UM-OP-Portal.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="UM-Prerequisite.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="users-manual-content.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="ATA_Center_Configuration.JPG" r:id="rId27"/>
+    <hyperlink ref="A28" display="ATA_Config_GW_Settings.jpg" r:id="rId28"/>
+    <hyperlink ref="A29" display="ATA_config_icon.JPG" r:id="rId29"/>
+    <hyperlink ref="A30" display="ATA_Domain_Connectivity_User.JPG" r:id="rId30"/>
+    <hyperlink ref="A31" display="ATA_Gateway_Configuration.JPG" r:id="rId31"/>
+    <hyperlink ref="A32" display="ATA_performance_monitoring_add_counters.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="ATA_VPN_Subnets.JPG" r:id="rId33"/>
+    <hyperlink ref="A34" display="ATAGWDomainController.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="large.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="small.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="ui-components.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="azure_active_directory_icon.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="conditional access_exchange_icon.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="intune_byod_icon.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="mobile_devices_icon.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="mobile_engagement_icon.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="index.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="index.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="AbsoluteUrl.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="AbsoluteUrlWithAAD.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="EmptyRelativeUrl.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="InvalidAbsoluteUrl.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="InvalidRelativeUrl.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="RelativePage.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="RelativeUrl.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="index.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="contacts-operations.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="entity-and-complex-type-reference.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="TOC.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="TOC.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -4166,7 +4670,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4191,49 +4695,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -4247,40 +4751,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -4294,40 +4798,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -4341,40 +4845,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -4388,40 +4892,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -4435,40 +4939,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -4482,40 +4986,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -4529,40 +5033,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -4576,40 +5080,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -4623,40 +5127,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -4670,40 +5174,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -4717,40 +5221,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -4764,40 +5268,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -4811,40 +5315,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -4858,40 +5362,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -4905,40 +5409,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -4952,45 +5456,45 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -4999,327 +5503,327 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="N20" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -5328,327 +5832,327 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
@@ -5657,92 +6161,92 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="N32" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
@@ -5751,87 +6255,87 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -5839,51 +6343,51 @@
         <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
@@ -5892,45 +6396,45 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
@@ -5942,277 +6446,277 @@
         <v>130</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
@@ -6221,45 +6725,45 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
@@ -6268,45 +6772,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -6315,45 +6819,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -6362,45 +6866,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -6409,45 +6913,45 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
@@ -6456,45 +6960,45 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -6503,45 +7007,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -6550,45 +7054,45 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -6597,40 +7101,369 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6649,43 +7482,50 @@
     <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
     <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
     <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-Cleanup-Content-Experiment.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-New-Content-Experiment.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="UM-Prerequisite.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="users-manual-content.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="ATA_Center_Configuration.JPG" r:id="rId20"/>
-    <hyperlink ref="A21" display="ATA_Config_GW_Settings.jpg" r:id="rId21"/>
-    <hyperlink ref="A22" display="ATA_config_icon.JPG" r:id="rId22"/>
-    <hyperlink ref="A23" display="ATA_Domain_Connectivity_User.JPG" r:id="rId23"/>
-    <hyperlink ref="A24" display="ATA_Gateway_Configuration.JPG" r:id="rId24"/>
-    <hyperlink ref="A25" display="ATA_performance_monitoring_add_counters.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="ATA_VPN_Subnets.JPG" r:id="rId26"/>
-    <hyperlink ref="A27" display="ATAGWDomainController.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="large.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="small.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="ui-components.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="azure_active_directory_icon.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="conditional access_exchange_icon.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="intune_byod_icon.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="mobile_devices_icon.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="mobile_engagement_icon.png" r:id="rId36"/>
-    <hyperlink ref="A37" display="index.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="index.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="AbsoluteUrl.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="AbsoluteUrlWithAAD.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="EmptyRelativeUrl.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="index.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="InvalidAbsoluteUrl.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="InvalidRelativeUrl.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="RelativePage.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="RelativeUrl.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="index.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="contacts-operations.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="entity-and-complex-type-reference.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="index.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="TOC.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId52"/>
+    <hyperlink ref="A16" display="UM-AB-Portal-Experiment-New.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="UM-AB-Portal-Experiments-Action.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="UM-AB-Portal-Experiments.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="UM-AB-Portal-Metrics-Config.png" r:id="rId19"/>
+    <hyperlink ref="A20" display="UM-AB-Portal-Metrics-Result.png" r:id="rId20"/>
+    <hyperlink ref="A21" display="UM-AB-Portal-Metrics.png" r:id="rId21"/>
+    <hyperlink ref="A22" display="UM-Cleanup-Content-Experiment.png" r:id="rId22"/>
+    <hyperlink ref="A23" display="UM-New-Content-Experiment.png" r:id="rId23"/>
+    <hyperlink ref="A24" display="UM-OP-Portal.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="UM-Prerequisite.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="users-manual-content.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="ATA_Center_Configuration.JPG" r:id="rId27"/>
+    <hyperlink ref="A28" display="ATA_Config_GW_Settings.jpg" r:id="rId28"/>
+    <hyperlink ref="A29" display="ATA_config_icon.JPG" r:id="rId29"/>
+    <hyperlink ref="A30" display="ATA_Domain_Connectivity_User.JPG" r:id="rId30"/>
+    <hyperlink ref="A31" display="ATA_Gateway_Configuration.JPG" r:id="rId31"/>
+    <hyperlink ref="A32" display="ATA_performance_monitoring_add_counters.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="ATA_VPN_Subnets.JPG" r:id="rId33"/>
+    <hyperlink ref="A34" display="ATAGWDomainController.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="large.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="small.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="ui-components.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="azure_active_directory_icon.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="conditional access_exchange_icon.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="intune_byod_icon.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="mobile_devices_icon.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="mobile_engagement_icon.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="index.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="index.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="AbsoluteUrl.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="AbsoluteUrlWithAAD.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="EmptyRelativeUrl.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="InvalidAbsoluteUrl.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="InvalidRelativeUrl.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="RelativePage.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="RelativeUrl.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="index.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="contacts-operations.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="entity-and-complex-type-reference.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="TOC.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="TOC.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>File Name</t>
   </si>
@@ -181,6 +181,9 @@
     <t>mobile_engagement_icon.png</t>
   </si>
   <si>
+    <t>2016-05-31 03:09:52</t>
+  </si>
+  <si>
     <t>2016-05-26 05:54:32</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
   </si>
   <si>
     <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-31 03:09:49</t>
   </si>
   <si>
     <t>openpublishing\test</t>
@@ -1476,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -1493,12 +1499,12 @@
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -1566,7 +1572,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -1617,7 +1623,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>10</v>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>10</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>10</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>10</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>10</v>
@@ -1829,49 +1835,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1885,40 +1891,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -1932,40 +1938,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -1979,40 +1985,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -2026,40 +2032,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2073,40 +2079,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -2120,40 +2126,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2167,40 +2173,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -2214,40 +2220,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -2261,40 +2267,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -2308,40 +2314,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -2355,40 +2361,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -2402,40 +2408,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -2449,40 +2455,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -2496,40 +2502,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2549,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -2590,40 +2596,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="N17" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -2637,40 +2643,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -2684,40 +2690,40 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2737,40 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -2778,40 +2784,40 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2825,40 +2831,40 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -2872,40 +2878,40 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -2919,40 +2925,40 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -2966,40 +2972,40 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -3013,40 +3019,40 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -3060,40 +3066,40 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -3107,40 +3113,40 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="N28" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -3154,40 +3160,40 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -3201,40 +3207,40 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -3248,40 +3254,40 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -3295,40 +3301,40 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -3342,40 +3348,40 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -3389,40 +3395,40 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -3436,40 +3442,40 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -3483,40 +3489,40 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -3530,40 +3536,40 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -3577,40 +3583,40 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3630,40 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -3671,40 +3677,40 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="N40" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -3718,40 +3724,40 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -3765,40 +3771,40 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -3812,40 +3818,40 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -3859,40 +3865,40 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -3906,45 +3912,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -3953,45 +3959,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -4000,45 +4006,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -4047,40 +4053,40 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -4094,45 +4100,45 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -4141,45 +4147,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -4188,45 +4194,45 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -4235,45 +4241,45 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>10</v>
@@ -4282,40 +4288,40 @@
         <v>7</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -4329,45 +4335,45 @@
         <v>7</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>10</v>
@@ -4376,45 +4382,45 @@
         <v>7</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>10</v>
@@ -4423,40 +4429,40 @@
         <v>7</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -4470,45 +4476,45 @@
         <v>7</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>10</v>
@@ -4517,45 +4523,45 @@
         <v>7</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>10</v>
@@ -4564,40 +4570,40 @@
         <v>7</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4695,49 +4701,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -4751,40 +4757,40 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -4798,40 +4804,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -4845,40 +4851,40 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -4892,40 +4898,40 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -4939,40 +4945,40 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -4986,40 +4992,40 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -5033,40 +5039,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -5080,40 +5086,40 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -5127,40 +5133,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -5174,40 +5180,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -5221,40 +5227,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -5268,40 +5274,40 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -5315,40 +5321,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -5362,40 +5368,40 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -5409,40 +5415,40 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -5456,40 +5462,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -5503,40 +5509,40 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -5550,40 +5556,40 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -5597,40 +5603,40 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -5644,40 +5650,40 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -5691,40 +5697,40 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -5738,40 +5744,40 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -5785,40 +5791,40 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -5832,40 +5838,40 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -5879,40 +5885,40 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -5926,40 +5932,40 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -5973,40 +5979,40 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="N28" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -6020,40 +6026,40 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -6067,40 +6073,40 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -6114,40 +6120,40 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -6161,40 +6167,40 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -6208,40 +6214,40 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -6255,40 +6261,40 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -6302,40 +6308,40 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -6349,40 +6355,40 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -6396,40 +6402,40 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -6443,40 +6449,40 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -6490,40 +6496,40 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -6537,40 +6543,40 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="N40" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -6584,40 +6590,40 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -6631,40 +6637,40 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -6678,40 +6684,40 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -6725,40 +6731,40 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -6772,45 +6778,45 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
@@ -6819,45 +6825,45 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
@@ -6866,45 +6872,45 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
@@ -6913,40 +6919,40 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -6960,45 +6966,45 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
@@ -7007,45 +7013,45 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
@@ -7054,45 +7060,45 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
@@ -7101,45 +7107,45 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>10</v>
@@ -7148,40 +7154,40 @@
         <v>7</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -7195,45 +7201,45 @@
         <v>7</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>10</v>
@@ -7242,45 +7248,45 @@
         <v>7</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>10</v>
@@ -7289,40 +7295,40 @@
         <v>7</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -7336,45 +7342,45 @@
         <v>7</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>10</v>
@@ -7383,45 +7389,45 @@
         <v>7</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>10</v>
@@ -7430,40 +7436,40 @@
         <v>7</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>File Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Extension</t>
   </si>
   <si>
+    <t>Publish URL</t>
+  </si>
+  <si>
     <t>de-de</t>
   </si>
   <si>
@@ -31,6 +34,102 @@
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>control-panel.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-05-25 07:50:46</t>
+  </si>
+  <si>
+    <t>index.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.experimental.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.experimental.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.experimental.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.md</t>
+  </si>
+  <si>
+    <t>single-topic.experimental.md</t>
+  </si>
+  <si>
+    <t>single-topic.md</t>
+  </si>
+  <si>
+    <t>users-manual-content.md</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:09</t>
+  </si>
+  <si>
+    <t>large.md</t>
+  </si>
+  <si>
+    <t>small.md</t>
+  </si>
+  <si>
+    <t>ui-components.md</t>
+  </si>
+  <si>
+    <t>2016-05-31 03:09:52</t>
+  </si>
+  <si>
+    <t>2016-05-26 05:54:32</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.md</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.md</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.md</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.md</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.md</t>
+  </si>
+  <si>
+    <t>RelativePage.md</t>
+  </si>
+  <si>
+    <t>RelativeUrl.md</t>
+  </si>
+  <si>
+    <t>contacts-operations.md</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.md</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:19</t>
+  </si>
+  <si>
     <t>content-ab-testing-flow.png</t>
   </si>
   <si>
@@ -40,15 +139,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-05-25 07:50:46</t>
-  </si>
-  <si>
-    <t>control-panel.md</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>global-ab-testing-flow.png</t>
   </si>
   <si>
@@ -61,39 +151,9 @@
     <t>iceberg.jpg</t>
   </si>
   <si>
-    <t>index.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.experimental.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.experimental.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.experimental.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.md</t>
-  </si>
-  <si>
-    <t>single-topic.experimental.md</t>
-  </si>
-  <si>
-    <t>single-topic.md</t>
-  </si>
-  <si>
     <t>UM-AB-Portal-Experiment-New.png</t>
   </si>
   <si>
-    <t>2016-05-27 07:53:09</t>
-  </si>
-  <si>
     <t>UM-AB-Portal-Experiments-Action.png</t>
   </si>
   <si>
@@ -112,9 +172,6 @@
     <t>UM-Cleanup-Content-Experiment.png</t>
   </si>
   <si>
-    <t>2016-05-26 14:53:19</t>
-  </si>
-  <si>
     <t>UM-New-Content-Experiment.png</t>
   </si>
   <si>
@@ -127,9 +184,6 @@
     <t>UM-Prerequisite.png</t>
   </si>
   <si>
-    <t>users-manual-content.md</t>
-  </si>
-  <si>
     <t>ATA_Center_Configuration.JPG</t>
   </si>
   <si>
@@ -157,15 +211,6 @@
     <t>ATAGWDomainController.png</t>
   </si>
   <si>
-    <t>large.md</t>
-  </si>
-  <si>
-    <t>small.md</t>
-  </si>
-  <si>
-    <t>ui-components.md</t>
-  </si>
-  <si>
     <t>azure_active_directory_icon.png</t>
   </si>
   <si>
@@ -181,42 +226,6 @@
     <t>mobile_engagement_icon.png</t>
   </si>
   <si>
-    <t>2016-05-31 03:09:52</t>
-  </si>
-  <si>
-    <t>2016-05-26 05:54:32</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.md</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.md</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.md</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.md</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.md</t>
-  </si>
-  <si>
-    <t>RelativePage.md</t>
-  </si>
-  <si>
-    <t>RelativeUrl.md</t>
-  </si>
-  <si>
-    <t>contacts-operations.md</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.md</t>
-  </si>
-  <si>
-    <t>TOC.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -265,33 +274,150 @@
     <t>openpublishing\test\abtesting</t>
   </si>
   <si>
-    <t/>
+    <t>control-panel.611c914fc083e64635d4fcb7c78760cde4272425.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-25 07:50:33</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.b2dc6798d40a4351c453299ae8b2cc8c6ae4ab4e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.experimental.9695f25e3786c84666a85d797741bca363b79f24.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.96866be8084a8e2c2e6f42872b6cc406d216d6e2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.experimental.ec8f896807eb094f82861165b0cd0792b541ed98.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.41e9841836ab4fd24846285274846c979199e46a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>single-topic.experimental.8b4e516cbf2629e5a9f5320bb921ecc585dc68fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:03</t>
+  </si>
+  <si>
+    <t>openpublishing\test\conceptual</t>
+  </si>
+  <si>
+    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\hubpage</t>
+  </si>
+  <si>
+    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-31 03:09:49</t>
+  </si>
+  <si>
+    <t>openpublishing\test</t>
+  </si>
+  <si>
+    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 05:54:30</t>
+  </si>
+  <si>
+    <t>openpublishing\test\redirectUrl</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\reference</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\restapi</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:16</t>
   </si>
   <si>
     <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
   </si>
   <si>
-    <t>2016-05-25 07:50:33</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>True(Dependency)</t>
   </si>
   <si>
     <t>openpublishing\test\abtesting\index.md</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>control-panel.611c914fc083e64635d4fcb7c78760cde4272425.de-de.xlf</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
   </si>
   <si>
@@ -307,39 +433,9 @@
     <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
   </si>
   <si>
-    <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.b2dc6798d40a4351c453299ae8b2cc8c6ae4ab4e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.experimental.9695f25e3786c84666a85d797741bca363b79f24.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.96866be8084a8e2c2e6f42872b6cc406d216d6e2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.experimental.ec8f896807eb094f82861165b0cd0792b541ed98.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.41e9841836ab4fd24846285274846c979199e46a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>single-topic.experimental.8b4e516cbf2629e5a9f5320bb921ecc585dc68fd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
-  </si>
-  <si>
     <t>0944ca47792ca28872d79785b4ad482afc815db4.png</t>
   </si>
   <si>
-    <t>2016-05-27 07:53:03</t>
-  </si>
-  <si>
     <t>openpublishing\test\abtesting\users-manual-content.md</t>
   </si>
   <si>
@@ -361,9 +457,6 @@
     <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
   </si>
   <si>
-    <t>2016-05-26 14:53:16</t>
-  </si>
-  <si>
     <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
   </si>
   <si>
@@ -376,9 +469,6 @@
     <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
   </si>
   <si>
-    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
-  </si>
-  <si>
     <t>openpublishing\test\conceptual\Image</t>
   </si>
   <si>
@@ -409,21 +499,6 @@
     <t>dddd652fb096923a6ac044e9d8c151dc1af2982f.png</t>
   </si>
   <si>
-    <t>openpublishing\test\conceptual</t>
-  </si>
-  <si>
-    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.de-de.xlf</t>
-  </si>
-  <si>
     <t>openpublishing\test\hubpage\Image</t>
   </si>
   <si>
@@ -443,75 +518,6 @@
   </si>
   <si>
     <t>b241a9a18fa3ab470534603d032fa7cf8ff0f066.png</t>
-  </si>
-  <si>
-    <t>openpublishing\test\hubpage</t>
-  </si>
-  <si>
-    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-31 03:09:49</t>
-  </si>
-  <si>
-    <t>openpublishing\test</t>
-  </si>
-  <si>
-    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-26 05:54:30</t>
-  </si>
-  <si>
-    <t>openpublishing\test\redirectUrl</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\reference</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\restapi</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
   </si>
   <si>
     <t>control-panel.611c914fc083e64635d4fcb7c78760cde4272425.zh-cn.xlf</t>
@@ -709,14 +715,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E59" headerRowCount="1">
-  <autoFilter ref="A1:E59"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F59" headerRowCount="1">
+  <autoFilter ref="A1:F59"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
-    <tableColumn id="3" name="de-de"/>
-    <tableColumn id="4" name="zh-cn"/>
-    <tableColumn id="5" name="Latest Handoff Date"/>
+    <tableColumn id="3" name="Publish URL"/>
+    <tableColumn id="4" name="de-de"/>
+    <tableColumn id="5" name="zh-cn"/>
+    <tableColumn id="6" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,9 +739,10 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="12.1930160522461" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.9639423915318" customWidth="1"/>
     <col min="4" max="4" width="17.2159881591797" customWidth="1"/>
-    <col min="5" max="5" width="21.2031533377511" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -753,73 +761,88 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -827,16 +850,19 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -844,16 +870,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -861,16 +890,19 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -878,16 +910,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -895,16 +930,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -912,16 +950,19 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -929,33 +970,39 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -963,16 +1010,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -980,16 +1030,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -997,577 +1050,679 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1575,16 +1730,19 @@
         <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1592,16 +1750,19 @@
         <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1609,16 +1770,19 @@
         <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1626,180 +1790,201 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="content-ab-testing-flow.png" r:id="rId2"/>
-    <hyperlink ref="A3" display="control-panel.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="global-ab-testing-flow.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="iceberg.experimental.jpg" r:id="rId5"/>
-    <hyperlink ref="A6" display="iceberg.jpg" r:id="rId6"/>
-    <hyperlink ref="A7" display="index.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-bar.experimental.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-bar.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="multiple-topics-baz.experimental.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="multiple-topics-baz.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="multiple-topics-foo.experimental.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-AB-Portal-Experiment-New.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-AB-Portal-Experiments-Action.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="UM-AB-Portal-Experiments.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="UM-AB-Portal-Metrics-Config.png" r:id="rId19"/>
-    <hyperlink ref="A20" display="UM-AB-Portal-Metrics-Result.png" r:id="rId20"/>
-    <hyperlink ref="A21" display="UM-AB-Portal-Metrics.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="UM-Cleanup-Content-Experiment.png" r:id="rId22"/>
-    <hyperlink ref="A23" display="UM-New-Content-Experiment.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="UM-OP-Portal.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="UM-Prerequisite.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="users-manual-content.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="ATA_Center_Configuration.JPG" r:id="rId27"/>
-    <hyperlink ref="A28" display="ATA_Config_GW_Settings.jpg" r:id="rId28"/>
-    <hyperlink ref="A29" display="ATA_config_icon.JPG" r:id="rId29"/>
-    <hyperlink ref="A30" display="ATA_Domain_Connectivity_User.JPG" r:id="rId30"/>
-    <hyperlink ref="A31" display="ATA_Gateway_Configuration.JPG" r:id="rId31"/>
-    <hyperlink ref="A32" display="ATA_performance_monitoring_add_counters.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="ATA_VPN_Subnets.JPG" r:id="rId33"/>
-    <hyperlink ref="A34" display="ATAGWDomainController.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="large.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="small.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="ui-components.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="azure_active_directory_icon.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="conditional access_exchange_icon.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="intune_byod_icon.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="mobile_devices_icon.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="mobile_engagement_icon.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="index.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="index.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="AbsoluteUrl.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="AbsoluteUrlWithAAD.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="EmptyRelativeUrl.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="InvalidAbsoluteUrl.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="InvalidRelativeUrl.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="RelativePage.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="RelativeUrl.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="index.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="contacts-operations.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="entity-and-complex-type-reference.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="TOC.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="TOC.md" r:id="rId59"/>
+    <hyperlink ref="A2" display="control-panel.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="multiple-topics-bar.experimental.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="multiple-topics-bar.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="multiple-topics-baz.experimental.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="multiple-topics-baz.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="multiple-topics-foo.experimental.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="users-manual-content.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="index.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="large.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="small.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="ui-components.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="index.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="index.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="AbsoluteUrl.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="AbsoluteUrlWithAAD.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="EmptyRelativeUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="index.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="InvalidAbsoluteUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="InvalidRelativeUrl.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="RelativePage.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="RelativeUrl.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="contacts-operations.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="entity-and-complex-type-reference.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="index.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="content-ab-testing-flow.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="global-ab-testing-flow.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="iceberg.experimental.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="iceberg.jpg" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiment-New.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Experiments-Action.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Experiments.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="ATA_Center_Configuration.JPG" r:id="rId47"/>
+    <hyperlink ref="A48" display="ATA_Config_GW_Settings.jpg" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_config_icon.JPG" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_Domain_Connectivity_User.JPG" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_Gateway_Configuration.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_performance_monitoring_add_counters.png" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_VPN_Subnets.JPG" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATAGWDomainController.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="azure_active_directory_icon.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="conditional access_exchange_icon.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="intune_byod_icon.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="mobile_devices_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="mobile_engagement_icon.png" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1835,237 +2020,237 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2073,46 +2258,46 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2120,46 +2305,46 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2167,46 +2352,46 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2214,46 +2399,46 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2261,46 +2446,46 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2308,46 +2493,46 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2355,93 +2540,93 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2449,46 +2634,46 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>104</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2496,46 +2681,46 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2543,1597 +2728,1597 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="M35" s="0" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N41" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M49" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="N49" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -4141,46 +4326,46 @@
         <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -4188,46 +4373,46 @@
         <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -4235,46 +4420,46 @@
         <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -4282,390 +4467,390 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="N57" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="content-ab-testing-flow.png" r:id="rId2"/>
-    <hyperlink ref="A3" display="control-panel.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="global-ab-testing-flow.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="iceberg.experimental.jpg" r:id="rId5"/>
-    <hyperlink ref="A6" display="iceberg.jpg" r:id="rId6"/>
-    <hyperlink ref="A7" display="index.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-bar.experimental.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-bar.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="multiple-topics-baz.experimental.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="multiple-topics-baz.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="multiple-topics-foo.experimental.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-AB-Portal-Experiment-New.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-AB-Portal-Experiments-Action.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="UM-AB-Portal-Experiments.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="UM-AB-Portal-Metrics-Config.png" r:id="rId19"/>
-    <hyperlink ref="A20" display="UM-AB-Portal-Metrics-Result.png" r:id="rId20"/>
-    <hyperlink ref="A21" display="UM-AB-Portal-Metrics.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="UM-Cleanup-Content-Experiment.png" r:id="rId22"/>
-    <hyperlink ref="A23" display="UM-New-Content-Experiment.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="UM-OP-Portal.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="UM-Prerequisite.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="users-manual-content.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="ATA_Center_Configuration.JPG" r:id="rId27"/>
-    <hyperlink ref="A28" display="ATA_Config_GW_Settings.jpg" r:id="rId28"/>
-    <hyperlink ref="A29" display="ATA_config_icon.JPG" r:id="rId29"/>
-    <hyperlink ref="A30" display="ATA_Domain_Connectivity_User.JPG" r:id="rId30"/>
-    <hyperlink ref="A31" display="ATA_Gateway_Configuration.JPG" r:id="rId31"/>
-    <hyperlink ref="A32" display="ATA_performance_monitoring_add_counters.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="ATA_VPN_Subnets.JPG" r:id="rId33"/>
-    <hyperlink ref="A34" display="ATAGWDomainController.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="large.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="small.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="ui-components.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="azure_active_directory_icon.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="conditional access_exchange_icon.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="intune_byod_icon.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="mobile_devices_icon.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="mobile_engagement_icon.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="index.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="index.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="AbsoluteUrl.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="AbsoluteUrlWithAAD.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="EmptyRelativeUrl.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="InvalidAbsoluteUrl.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="InvalidRelativeUrl.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="RelativePage.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="RelativeUrl.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="index.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="contacts-operations.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="entity-and-complex-type-reference.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="TOC.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="TOC.md" r:id="rId59"/>
+    <hyperlink ref="A2" display="control-panel.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="multiple-topics-bar.experimental.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="multiple-topics-bar.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="multiple-topics-baz.experimental.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="multiple-topics-baz.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="multiple-topics-foo.experimental.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="users-manual-content.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="index.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="large.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="small.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="ui-components.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="index.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="index.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="AbsoluteUrl.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="AbsoluteUrlWithAAD.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="EmptyRelativeUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="index.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="InvalidAbsoluteUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="InvalidRelativeUrl.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="RelativePage.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="RelativeUrl.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="contacts-operations.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="entity-and-complex-type-reference.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="index.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="content-ab-testing-flow.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="global-ab-testing-flow.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="iceberg.experimental.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="iceberg.jpg" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiment-New.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Experiments-Action.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Experiments.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="ATA_Center_Configuration.JPG" r:id="rId47"/>
+    <hyperlink ref="A48" display="ATA_Config_GW_Settings.jpg" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_config_icon.JPG" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_Domain_Connectivity_User.JPG" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_Gateway_Configuration.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_performance_monitoring_add_counters.png" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_VPN_Subnets.JPG" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATAGWDomainController.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="azure_active_directory_icon.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="conditional access_exchange_icon.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="intune_byod_icon.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="mobile_devices_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="mobile_engagement_icon.png" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -4701,237 +4886,237 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4939,46 +5124,46 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4986,46 +5171,46 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -5033,46 +5218,46 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -5080,46 +5265,46 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -5127,46 +5312,46 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -5174,46 +5359,46 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -5221,93 +5406,93 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -5315,46 +5500,46 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -5362,46 +5547,46 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -5409,1597 +5594,1597 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N41" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -7007,46 +7192,46 @@
         <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -7054,46 +7239,46 @@
         <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -7101,46 +7286,46 @@
         <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -7148,390 +7333,390 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="content-ab-testing-flow.png" r:id="rId2"/>
-    <hyperlink ref="A3" display="control-panel.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="global-ab-testing-flow.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="iceberg.experimental.jpg" r:id="rId5"/>
-    <hyperlink ref="A6" display="iceberg.jpg" r:id="rId6"/>
-    <hyperlink ref="A7" display="index.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-bar.experimental.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-bar.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="multiple-topics-baz.experimental.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="multiple-topics-baz.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="multiple-topics-foo.experimental.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="single-topic.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="UM-AB-Portal-Experiment-New.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="UM-AB-Portal-Experiments-Action.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="UM-AB-Portal-Experiments.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="UM-AB-Portal-Metrics-Config.png" r:id="rId19"/>
-    <hyperlink ref="A20" display="UM-AB-Portal-Metrics-Result.png" r:id="rId20"/>
-    <hyperlink ref="A21" display="UM-AB-Portal-Metrics.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="UM-Cleanup-Content-Experiment.png" r:id="rId22"/>
-    <hyperlink ref="A23" display="UM-New-Content-Experiment.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="UM-OP-Portal.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="UM-Prerequisite.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="users-manual-content.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="ATA_Center_Configuration.JPG" r:id="rId27"/>
-    <hyperlink ref="A28" display="ATA_Config_GW_Settings.jpg" r:id="rId28"/>
-    <hyperlink ref="A29" display="ATA_config_icon.JPG" r:id="rId29"/>
-    <hyperlink ref="A30" display="ATA_Domain_Connectivity_User.JPG" r:id="rId30"/>
-    <hyperlink ref="A31" display="ATA_Gateway_Configuration.JPG" r:id="rId31"/>
-    <hyperlink ref="A32" display="ATA_performance_monitoring_add_counters.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="ATA_VPN_Subnets.JPG" r:id="rId33"/>
-    <hyperlink ref="A34" display="ATAGWDomainController.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="large.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="small.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="ui-components.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="azure_active_directory_icon.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="conditional access_exchange_icon.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="intune_byod_icon.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="mobile_devices_icon.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="mobile_engagement_icon.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="index.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="index.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="AbsoluteUrl.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="AbsoluteUrlWithAAD.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="EmptyRelativeUrl.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="index.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="InvalidAbsoluteUrl.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="InvalidRelativeUrl.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="RelativePage.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="RelativeUrl.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="index.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="contacts-operations.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="entity-and-complex-type-reference.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="TOC.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="TOC.md" r:id="rId59"/>
+    <hyperlink ref="A2" display="control-panel.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="multiple-topics-bar.experimental.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="multiple-topics-bar.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="multiple-topics-baz.experimental.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="multiple-topics-baz.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="multiple-topics-foo.experimental.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="users-manual-content.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="index.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="large.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="small.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="ui-components.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="index.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="index.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="AbsoluteUrl.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="AbsoluteUrlWithAAD.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="EmptyRelativeUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="index.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="InvalidAbsoluteUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="InvalidRelativeUrl.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="RelativePage.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="RelativeUrl.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="contacts-operations.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="entity-and-complex-type-reference.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="index.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="content-ab-testing-flow.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="global-ab-testing-flow.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="iceberg.experimental.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="iceberg.jpg" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiment-New.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Experiments-Action.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Experiments.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="ATA_Center_Configuration.JPG" r:id="rId47"/>
+    <hyperlink ref="A48" display="ATA_Config_GW_Settings.jpg" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_config_icon.JPG" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_Domain_Connectivity_User.JPG" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_Gateway_Configuration.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_performance_monitoring_add_counters.png" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_VPN_Subnets.JPG" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATAGWDomainController.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="azure_active_directory_icon.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="conditional access_exchange_icon.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="intune_byod_icon.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="mobile_devices_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="mobile_engagement_icon.png" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>File Name</t>
   </si>
@@ -76,114 +76,123 @@
     <t>single-topic.md</t>
   </si>
   <si>
+    <t>large.md</t>
+  </si>
+  <si>
+    <t>small.md</t>
+  </si>
+  <si>
+    <t>ui-components.md</t>
+  </si>
+  <si>
+    <t>2016-05-31 03:09:52</t>
+  </si>
+  <si>
+    <t>2016-05-26 05:54:32</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.md</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.md</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.md</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.md</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.md</t>
+  </si>
+  <si>
+    <t>RelativePage.md</t>
+  </si>
+  <si>
+    <t>RelativeUrl.md</t>
+  </si>
+  <si>
+    <t>contacts-operations.md</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.md</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:19</t>
+  </si>
+  <si>
+    <t>content-ab-testing-flow.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>global-ab-testing-flow.png</t>
+  </si>
+  <si>
+    <t>iceberg.experimental.jpg</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>iceberg.jpg</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Experiment-New.png</t>
+  </si>
+  <si>
+    <t>2016-06-12 02:31:51</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Experiments-Action.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Experiments.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metric-Report-Config.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metric-Report-Result.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metrics-Config.png</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:09</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metrics-Result.png</t>
+  </si>
+  <si>
+    <t>UM-AB-Portal-Metrics.png</t>
+  </si>
+  <si>
+    <t>UM-Cleanup-Content-Experiment.png</t>
+  </si>
+  <si>
+    <t>UM-New-Content-Experiment.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 09:52:23</t>
+  </si>
+  <si>
+    <t>UM-OP-Portal.png</t>
+  </si>
+  <si>
+    <t>UM-Prerequisite.png</t>
+  </si>
+  <si>
     <t>users-manual-content.md</t>
   </si>
   <si>
-    <t>2016-05-27 07:53:09</t>
-  </si>
-  <si>
-    <t>large.md</t>
-  </si>
-  <si>
-    <t>small.md</t>
-  </si>
-  <si>
-    <t>ui-components.md</t>
-  </si>
-  <si>
-    <t>2016-05-31 03:09:52</t>
-  </si>
-  <si>
-    <t>2016-05-26 05:54:32</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.md</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.md</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.md</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.md</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.md</t>
-  </si>
-  <si>
-    <t>RelativePage.md</t>
-  </si>
-  <si>
-    <t>RelativeUrl.md</t>
-  </si>
-  <si>
-    <t>contacts-operations.md</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.md</t>
-  </si>
-  <si>
-    <t>TOC.md</t>
-  </si>
-  <si>
-    <t>2016-05-26 14:53:19</t>
-  </si>
-  <si>
-    <t>content-ab-testing-flow.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>global-ab-testing-flow.png</t>
-  </si>
-  <si>
-    <t>iceberg.experimental.jpg</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>iceberg.jpg</t>
-  </si>
-  <si>
-    <t>UM-AB-Portal-Experiment-New.png</t>
-  </si>
-  <si>
-    <t>UM-AB-Portal-Experiments-Action.png</t>
-  </si>
-  <si>
-    <t>UM-AB-Portal-Experiments.png</t>
-  </si>
-  <si>
-    <t>UM-AB-Portal-Metrics-Config.png</t>
-  </si>
-  <si>
-    <t>UM-AB-Portal-Metrics-Result.png</t>
-  </si>
-  <si>
-    <t>UM-AB-Portal-Metrics.png</t>
-  </si>
-  <si>
-    <t>UM-Cleanup-Content-Experiment.png</t>
-  </si>
-  <si>
-    <t>UM-New-Content-Experiment.png</t>
-  </si>
-  <si>
-    <t>2016-05-26 09:52:23</t>
-  </si>
-  <si>
-    <t>UM-OP-Portal.png</t>
-  </si>
-  <si>
-    <t>UM-Prerequisite.png</t>
-  </si>
-  <si>
     <t>ATA_Center_Configuration.JPG</t>
   </si>
   <si>
@@ -316,159 +325,168 @@
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
   </si>
   <si>
+    <t>openpublishing\test\conceptual</t>
+  </si>
+  <si>
+    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\hubpage</t>
+  </si>
+  <si>
+    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-31 03:09:49</t>
+  </si>
+  <si>
+    <t>openpublishing\test</t>
+  </si>
+  <si>
+    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 05:54:30</t>
+  </si>
+  <si>
+    <t>openpublishing\test\redirectUrl</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\reference</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\restapi</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:16</t>
+  </si>
+  <si>
+    <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\index.md</t>
+  </si>
+  <si>
+    <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
+  </si>
+  <si>
+    <t>532748fbca6599349f0655e85e79d2103156bd9b.jpg</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
+  </si>
+  <si>
+    <t>7c634bd01edf790ef91ded6d44abee709be27adc.jpg</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
+  </si>
+  <si>
+    <t>d8f60d16a863b25a5f10a18bc44a0c76614d4bd9.png</t>
+  </si>
+  <si>
+    <t>2016-06-12 02:31:46</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\users-manual-content.md</t>
+  </si>
+  <si>
+    <t>7a5f1d3027f5c404b1d0b5f7e5a13859c98f7144.png</t>
+  </si>
+  <si>
+    <t>ed6e256aa0a4afebf3aa254f4b8555ed3aa96e73.png</t>
+  </si>
+  <si>
+    <t>b08419de5c61576d8cba079b263d09c14176abf1.png</t>
+  </si>
+  <si>
+    <t>e0a2cfb0f44f0ca1730d147d6ce0c7bbf12677c8.png</t>
+  </si>
+  <si>
+    <t>3ef8bdc8c711e0d812939e0839510959e135cbf2.png</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:03</t>
+  </si>
+  <si>
+    <t>2e32dcb5e35020dafe50b8524c2faa1f98987d27.png</t>
+  </si>
+  <si>
+    <t>fdefdf4e0c5a990e26aa3bfa0feb5e9b770eed1e.png</t>
+  </si>
+  <si>
+    <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
+  </si>
+  <si>
+    <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 09:52:21</t>
+  </si>
+  <si>
+    <t>6b9ff10a197ad5bb1849ccd5eba49a57e7dd20a0.png</t>
+  </si>
+  <si>
+    <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
+  </si>
+  <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-05-27 07:53:03</t>
-  </si>
-  <si>
-    <t>openpublishing\test\conceptual</t>
-  </si>
-  <si>
-    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\hubpage</t>
-  </si>
-  <si>
-    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-31 03:09:49</t>
-  </si>
-  <si>
-    <t>openpublishing\test</t>
-  </si>
-  <si>
-    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-26 05:54:30</t>
-  </si>
-  <si>
-    <t>openpublishing\test\redirectUrl</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\reference</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\restapi</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-26 14:53:16</t>
-  </si>
-  <si>
-    <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\index.md</t>
-  </si>
-  <si>
-    <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
-  </si>
-  <si>
-    <t>532748fbca6599349f0655e85e79d2103156bd9b.jpg</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
-  </si>
-  <si>
-    <t>7c634bd01edf790ef91ded6d44abee709be27adc.jpg</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
-  </si>
-  <si>
-    <t>0944ca47792ca28872d79785b4ad482afc815db4.png</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\users-manual-content.md</t>
-  </si>
-  <si>
-    <t>5d3a37f233086af48eb656aee4089fc4cdb7b3ad.png</t>
-  </si>
-  <si>
-    <t>d0e283fc21dfe6cc56e2a7bf4d6d9f21721aa7bb.png</t>
-  </si>
-  <si>
-    <t>3ef8bdc8c711e0d812939e0839510959e135cbf2.png</t>
-  </si>
-  <si>
-    <t>a243078245ec47332f79cdd572df6526d2f632a6.png</t>
-  </si>
-  <si>
-    <t>ba8236c916168ef664ec671a88984d6522fdf900.png</t>
-  </si>
-  <si>
-    <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
-  </si>
-  <si>
-    <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
-  </si>
-  <si>
-    <t>2016-05-26 09:52:21</t>
-  </si>
-  <si>
-    <t>6b9ff10a197ad5bb1849ccd5eba49a57e7dd20a0.png</t>
-  </si>
-  <si>
-    <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
-  </si>
-  <si>
     <t>openpublishing\test\conceptual\Image</t>
   </si>
   <si>
@@ -550,67 +568,67 @@
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.zh-cn.xlf</t>
   </si>
   <si>
+    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -667,8 +685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O59" headerRowCount="1">
-  <autoFilter ref="A1:O59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O61" headerRowCount="1">
+  <autoFilter ref="A1:O61"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -691,8 +709,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O59" headerRowCount="1">
-  <autoFilter ref="A1:O59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O61" headerRowCount="1">
+  <autoFilter ref="A1:O61"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -715,8 +733,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F59" headerRowCount="1">
-  <autoFilter ref="A1:F59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F61" headerRowCount="1">
+  <autoFilter ref="A1:F61"/>
   <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -731,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +985,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -982,12 +1000,12 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -1007,7 +1025,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -1027,7 +1045,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -1047,7 +1065,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -1062,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1082,12 +1100,12 @@
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -1102,12 +1120,12 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -1127,7 +1145,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -1147,7 +1165,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
@@ -1167,7 +1185,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
@@ -1187,7 +1205,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -1207,7 +1225,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -1247,7 +1265,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
@@ -1267,7 +1285,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -1287,7 +1305,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -1307,7 +1325,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -1327,7 +1345,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
@@ -1347,7 +1365,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>7</v>
@@ -1362,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1370,36 +1388,36 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1425,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="C34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1430,16 +1448,16 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1447,22 +1465,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1470,19 +1488,19 @@
         <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1490,19 +1508,19 @@
         <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -1510,19 +1528,19 @@
         <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -1530,19 +1548,19 @@
         <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -1550,79 +1568,79 @@
         <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -1630,59 +1648,59 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -1690,19 +1708,19 @@
         <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
@@ -1710,16 +1728,16 @@
         <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1745,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1805,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1845,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1865,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1905,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1907,21 +1925,61 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1937,54 +1995,56 @@
     <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
     <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
     <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="users-manual-content.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="index.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="large.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="small.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="ui-components.md" r:id="rId16"/>
+    <hyperlink ref="A12" display="index.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="large.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="small.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="ui-components.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="index.md" r:id="rId16"/>
     <hyperlink ref="A17" display="index.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="index.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="AbsoluteUrl.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="AbsoluteUrlWithAAD.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="EmptyRelativeUrl.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="index.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="InvalidAbsoluteUrl.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="InvalidRelativeUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="RelativePage.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="RelativeUrl.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="contacts-operations.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="entity-and-complex-type-reference.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="index.md" r:id="rId30"/>
+    <hyperlink ref="A18" display="AbsoluteUrl.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="AbsoluteUrlWithAAD.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="EmptyRelativeUrl.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="index.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="InvalidAbsoluteUrl.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="InvalidRelativeUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="RelativePage.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="RelativeUrl.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="index.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="contacts-operations.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="entity-and-complex-type-reference.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="index.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
     <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="content-ab-testing-flow.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="global-ab-testing-flow.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="iceberg.experimental.jpg" r:id="rId35"/>
-    <hyperlink ref="A36" display="iceberg.jpg" r:id="rId36"/>
-    <hyperlink ref="A37" display="UM-AB-Portal-Experiment-New.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="UM-AB-Portal-Experiments-Action.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="UM-AB-Portal-Experiments.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="ATA_Center_Configuration.JPG" r:id="rId47"/>
-    <hyperlink ref="A48" display="ATA_Config_GW_Settings.jpg" r:id="rId48"/>
-    <hyperlink ref="A49" display="ATA_config_icon.JPG" r:id="rId49"/>
-    <hyperlink ref="A50" display="ATA_Domain_Connectivity_User.JPG" r:id="rId50"/>
-    <hyperlink ref="A51" display="ATA_Gateway_Configuration.JPG" r:id="rId51"/>
-    <hyperlink ref="A52" display="ATA_performance_monitoring_add_counters.png" r:id="rId52"/>
-    <hyperlink ref="A53" display="ATA_VPN_Subnets.JPG" r:id="rId53"/>
-    <hyperlink ref="A54" display="ATAGWDomainController.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="azure_active_directory_icon.png" r:id="rId55"/>
-    <hyperlink ref="A56" display="conditional access_exchange_icon.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="intune_byod_icon.png" r:id="rId57"/>
-    <hyperlink ref="A58" display="mobile_devices_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="mobile_engagement_icon.png" r:id="rId59"/>
+    <hyperlink ref="A32" display="content-ab-testing-flow.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="global-ab-testing-flow.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="iceberg.experimental.jpg" r:id="rId34"/>
+    <hyperlink ref="A35" display="iceberg.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Config.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics-Result.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-AB-Portal-Metrics.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-Cleanup-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-New-Content-Experiment.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-OP-Portal.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="UM-Prerequisite.png" r:id="rId47"/>
+    <hyperlink ref="A48" display="users-manual-content.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_Center_Configuration.JPG" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_Config_GW_Settings.jpg" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_config_icon.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_Domain_Connectivity_User.JPG" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_Gateway_Configuration.JPG" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
+    <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="azure_active_directory_icon.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="conditional access_exchange_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="intune_byod_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="mobile_devices_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_engagement_icon.png" r:id="rId61"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1995,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2020,49 +2080,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -2076,16 +2136,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -2094,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -2123,16 +2183,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -2141,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -2170,16 +2230,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -2188,19 +2248,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -2217,16 +2277,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -2235,19 +2295,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -2264,16 +2324,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -2282,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -2311,16 +2371,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -2329,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -2358,16 +2418,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -2376,19 +2436,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -2405,16 +2465,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -2423,19 +2483,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -2452,16 +2512,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -2470,19 +2530,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -2499,16 +2559,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -2517,19 +2577,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -2537,7 +2597,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -2546,16 +2606,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -2564,19 +2624,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -2584,7 +2644,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -2593,16 +2653,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -2611,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2631,7 +2691,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -2640,16 +2700,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -2658,19 +2718,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2678,7 +2738,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -2687,16 +2747,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -2705,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2725,7 +2785,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -2734,16 +2794,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2752,19 +2812,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2781,16 +2841,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -2799,19 +2859,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -2819,7 +2879,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -2828,16 +2888,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -2846,19 +2906,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -2866,7 +2926,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -2875,16 +2935,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>8</v>
@@ -2893,19 +2953,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -2913,7 +2973,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -2922,16 +2982,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -2940,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -2960,7 +3020,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
@@ -2969,16 +3029,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -2987,19 +3047,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -3007,7 +3067,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
@@ -3016,16 +3076,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -3034,19 +3094,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -3054,7 +3114,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -3063,16 +3123,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -3081,19 +3141,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -3101,7 +3161,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -3110,16 +3170,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -3128,19 +3188,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3148,7 +3208,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -3157,16 +3217,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -3175,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3195,7 +3255,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
@@ -3204,16 +3264,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -3222,19 +3282,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -3242,7 +3302,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -3251,16 +3311,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -3269,19 +3329,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3289,7 +3349,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -3298,16 +3358,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -3316,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -3336,7 +3396,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -3345,16 +3405,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3363,19 +3423,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -3383,7 +3443,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
@@ -3392,16 +3452,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -3410,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -3430,7 +3490,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>7</v>
@@ -3439,16 +3499,16 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -3457,19 +3517,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -3480,22 +3540,22 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -3504,19 +3564,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -3524,25 +3584,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -3551,19 +3611,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -3571,25 +3631,25 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="C34" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3598,19 +3658,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -3621,22 +3681,22 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -3645,19 +3705,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -3665,25 +3725,25 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
@@ -3692,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -3715,22 +3775,22 @@
         <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
@@ -3739,19 +3799,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -3762,23 +3822,23 @@
         <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
       </c>
@@ -3786,19 +3846,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -3809,43 +3869,43 @@
         <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="N39" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -3856,22 +3916,22 @@
         <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -3880,19 +3940,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -3903,22 +3963,22 @@
         <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -3927,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -3947,25 +4007,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -3974,19 +4034,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -3994,25 +4054,25 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4021,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -4041,25 +4101,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -4068,19 +4128,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -4091,22 +4151,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4115,19 +4175,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -4135,22 +4195,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>148</v>
@@ -4162,19 +4222,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -4182,25 +4242,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -4209,19 +4269,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -4232,22 +4292,22 @@
         <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4256,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -4279,22 +4339,22 @@
         <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>8</v>
@@ -4303,19 +4363,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -4323,25 +4383,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>8</v>
@@ -4350,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -4370,25 +4430,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>8</v>
@@ -4397,19 +4457,19 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -4417,25 +4477,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>8</v>
@@ -4444,19 +4504,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -4464,46 +4524,46 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M53" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="N53" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -4511,25 +4571,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>8</v>
@@ -4538,19 +4598,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -4558,25 +4618,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>8</v>
@@ -4585,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -4605,25 +4665,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4632,19 +4692,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4652,25 +4712,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -4679,19 +4739,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4699,25 +4759,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4726,19 +4786,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -4746,48 +4806,142 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="N59" s="0" t="s">
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O59" s="0" t="s">
+      <c r="H60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O61" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4803,54 +4957,56 @@
     <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
     <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
     <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="users-manual-content.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="index.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="large.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="small.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="ui-components.md" r:id="rId16"/>
+    <hyperlink ref="A12" display="index.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="large.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="small.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="ui-components.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="index.md" r:id="rId16"/>
     <hyperlink ref="A17" display="index.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="index.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="AbsoluteUrl.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="AbsoluteUrlWithAAD.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="EmptyRelativeUrl.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="index.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="InvalidAbsoluteUrl.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="InvalidRelativeUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="RelativePage.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="RelativeUrl.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="contacts-operations.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="entity-and-complex-type-reference.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="index.md" r:id="rId30"/>
+    <hyperlink ref="A18" display="AbsoluteUrl.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="AbsoluteUrlWithAAD.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="EmptyRelativeUrl.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="index.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="InvalidAbsoluteUrl.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="InvalidRelativeUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="RelativePage.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="RelativeUrl.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="index.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="contacts-operations.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="entity-and-complex-type-reference.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="index.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
     <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="content-ab-testing-flow.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="global-ab-testing-flow.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="iceberg.experimental.jpg" r:id="rId35"/>
-    <hyperlink ref="A36" display="iceberg.jpg" r:id="rId36"/>
-    <hyperlink ref="A37" display="UM-AB-Portal-Experiment-New.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="UM-AB-Portal-Experiments-Action.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="UM-AB-Portal-Experiments.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="ATA_Center_Configuration.JPG" r:id="rId47"/>
-    <hyperlink ref="A48" display="ATA_Config_GW_Settings.jpg" r:id="rId48"/>
-    <hyperlink ref="A49" display="ATA_config_icon.JPG" r:id="rId49"/>
-    <hyperlink ref="A50" display="ATA_Domain_Connectivity_User.JPG" r:id="rId50"/>
-    <hyperlink ref="A51" display="ATA_Gateway_Configuration.JPG" r:id="rId51"/>
-    <hyperlink ref="A52" display="ATA_performance_monitoring_add_counters.png" r:id="rId52"/>
-    <hyperlink ref="A53" display="ATA_VPN_Subnets.JPG" r:id="rId53"/>
-    <hyperlink ref="A54" display="ATAGWDomainController.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="azure_active_directory_icon.png" r:id="rId55"/>
-    <hyperlink ref="A56" display="conditional access_exchange_icon.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="intune_byod_icon.png" r:id="rId57"/>
-    <hyperlink ref="A58" display="mobile_devices_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="mobile_engagement_icon.png" r:id="rId59"/>
+    <hyperlink ref="A32" display="content-ab-testing-flow.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="global-ab-testing-flow.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="iceberg.experimental.jpg" r:id="rId34"/>
+    <hyperlink ref="A35" display="iceberg.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Config.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics-Result.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-AB-Portal-Metrics.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-Cleanup-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-New-Content-Experiment.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-OP-Portal.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="UM-Prerequisite.png" r:id="rId47"/>
+    <hyperlink ref="A48" display="users-manual-content.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_Center_Configuration.JPG" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_Config_GW_Settings.jpg" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_config_icon.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_Domain_Connectivity_User.JPG" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_Gateway_Configuration.JPG" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
+    <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="azure_active_directory_icon.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="conditional access_exchange_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="intune_byod_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="mobile_devices_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_engagement_icon.png" r:id="rId61"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -4861,7 +5017,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4886,49 +5042,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -4942,13 +5098,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -4960,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -4989,13 +5145,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -5007,19 +5163,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -5036,13 +5192,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5054,19 +5210,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -5083,13 +5239,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -5101,19 +5257,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -5130,13 +5286,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -5148,19 +5304,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -5177,13 +5333,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -5195,19 +5351,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -5224,13 +5380,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -5242,19 +5398,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -5271,13 +5427,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -5289,19 +5445,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -5318,13 +5474,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -5336,19 +5492,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -5365,13 +5521,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -5383,19 +5539,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -5403,7 +5559,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -5412,16 +5568,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -5430,19 +5586,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -5450,7 +5606,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -5459,13 +5615,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -5477,19 +5633,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -5497,7 +5653,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -5506,13 +5662,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -5524,19 +5680,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -5544,7 +5700,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -5553,13 +5709,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
@@ -5571,19 +5727,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -5591,7 +5747,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -5600,16 +5756,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -5618,19 +5774,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5647,16 +5803,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -5665,19 +5821,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -5685,7 +5841,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -5694,16 +5850,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -5712,19 +5868,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -5732,7 +5888,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -5741,13 +5897,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -5759,19 +5915,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -5779,7 +5935,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -5788,13 +5944,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -5806,19 +5962,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -5826,7 +5982,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
@@ -5835,13 +5991,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -5853,19 +6009,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -5873,7 +6029,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
@@ -5882,13 +6038,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -5900,19 +6056,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -5920,7 +6076,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -5929,13 +6085,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -5947,19 +6103,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -5967,7 +6123,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -5976,13 +6132,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -5994,19 +6150,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6014,7 +6170,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -6023,13 +6179,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -6041,19 +6197,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6061,7 +6217,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
@@ -6070,13 +6226,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -6088,19 +6244,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -6108,7 +6264,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -6117,13 +6273,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -6135,19 +6291,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6155,7 +6311,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -6164,13 +6320,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -6182,19 +6338,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -6202,7 +6358,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -6211,13 +6367,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -6229,19 +6385,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -6249,7 +6405,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
@@ -6258,13 +6414,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>10</v>
@@ -6276,19 +6432,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -6296,7 +6452,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>7</v>
@@ -6305,16 +6461,16 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -6323,19 +6479,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -6346,22 +6502,22 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -6370,19 +6526,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -6390,22 +6546,22 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -6417,19 +6573,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -6437,22 +6593,22 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="C34" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>10</v>
@@ -6464,19 +6620,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -6487,19 +6643,19 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>10</v>
@@ -6511,19 +6667,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -6531,26 +6687,26 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
       </c>
@@ -6558,19 +6714,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -6581,22 +6737,22 @@
         <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
@@ -6605,19 +6761,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -6628,22 +6784,22 @@
         <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -6652,19 +6808,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -6675,43 +6831,43 @@
         <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="N39" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -6722,22 +6878,22 @@
         <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -6746,19 +6902,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -6769,22 +6925,22 @@
         <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -6793,19 +6949,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -6813,25 +6969,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -6840,19 +6996,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -6860,25 +7016,25 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -6887,19 +7043,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -6907,25 +7063,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -6934,19 +7090,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -6957,22 +7113,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -6981,19 +7137,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -7001,25 +7157,25 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -7028,19 +7184,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -7048,25 +7204,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -7075,19 +7231,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -7098,22 +7254,22 @@
         <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -7122,19 +7278,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -7145,19 +7301,19 @@
         <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -7169,19 +7325,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -7189,22 +7345,22 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>10</v>
@@ -7216,19 +7372,19 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -7236,22 +7392,22 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>10</v>
@@ -7263,19 +7419,19 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -7283,22 +7439,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -7310,19 +7466,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -7330,46 +7486,46 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M53" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="N53" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -7377,22 +7533,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -7404,19 +7560,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -7424,22 +7580,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>10</v>
@@ -7451,19 +7607,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -7471,22 +7627,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>10</v>
@@ -7498,19 +7654,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -7518,22 +7674,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>10</v>
@@ -7545,19 +7701,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -7565,22 +7721,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -7592,19 +7748,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -7612,48 +7768,142 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="O59" s="0" t="s">
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O61" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7669,54 +7919,56 @@
     <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
     <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
     <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="users-manual-content.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="index.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="large.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="small.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="ui-components.md" r:id="rId16"/>
+    <hyperlink ref="A12" display="index.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="large.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="small.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="ui-components.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="index.md" r:id="rId16"/>
     <hyperlink ref="A17" display="index.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="index.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="AbsoluteUrl.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="AbsoluteUrlWithAAD.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="EmptyRelativeUrl.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="index.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="InvalidAbsoluteUrl.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="InvalidRelativeUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="RelativePage.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="RelativeUrl.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="contacts-operations.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="entity-and-complex-type-reference.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="index.md" r:id="rId30"/>
+    <hyperlink ref="A18" display="AbsoluteUrl.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="AbsoluteUrlWithAAD.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="EmptyRelativeUrl.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="index.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="InvalidAbsoluteUrl.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="InvalidRelativeUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="RelativePage.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="RelativeUrl.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="index.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="contacts-operations.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="entity-and-complex-type-reference.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="index.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
     <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="content-ab-testing-flow.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="global-ab-testing-flow.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="iceberg.experimental.jpg" r:id="rId35"/>
-    <hyperlink ref="A36" display="iceberg.jpg" r:id="rId36"/>
-    <hyperlink ref="A37" display="UM-AB-Portal-Experiment-New.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="UM-AB-Portal-Experiments-Action.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="UM-AB-Portal-Experiments.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="ATA_Center_Configuration.JPG" r:id="rId47"/>
-    <hyperlink ref="A48" display="ATA_Config_GW_Settings.jpg" r:id="rId48"/>
-    <hyperlink ref="A49" display="ATA_config_icon.JPG" r:id="rId49"/>
-    <hyperlink ref="A50" display="ATA_Domain_Connectivity_User.JPG" r:id="rId50"/>
-    <hyperlink ref="A51" display="ATA_Gateway_Configuration.JPG" r:id="rId51"/>
-    <hyperlink ref="A52" display="ATA_performance_monitoring_add_counters.png" r:id="rId52"/>
-    <hyperlink ref="A53" display="ATA_VPN_Subnets.JPG" r:id="rId53"/>
-    <hyperlink ref="A54" display="ATAGWDomainController.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="azure_active_directory_icon.png" r:id="rId55"/>
-    <hyperlink ref="A56" display="conditional access_exchange_icon.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="intune_byod_icon.png" r:id="rId57"/>
-    <hyperlink ref="A58" display="mobile_devices_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="mobile_engagement_icon.png" r:id="rId59"/>
+    <hyperlink ref="A32" display="content-ab-testing-flow.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="global-ab-testing-flow.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="iceberg.experimental.jpg" r:id="rId34"/>
+    <hyperlink ref="A35" display="iceberg.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Config.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics-Result.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-AB-Portal-Metrics.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-Cleanup-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-New-Content-Experiment.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-OP-Portal.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="UM-Prerequisite.png" r:id="rId47"/>
+    <hyperlink ref="A48" display="users-manual-content.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_Center_Configuration.JPG" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_Config_GW_Settings.jpg" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_config_icon.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_Domain_Connectivity_User.JPG" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_Gateway_Configuration.JPG" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
+    <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="azure_active_directory_icon.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="conditional access_exchange_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="intune_byod_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="mobile_devices_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_engagement_icon.png" r:id="rId61"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>File Name</t>
   </si>
@@ -193,6 +193,9 @@
     <t>users-manual-content.md</t>
   </si>
   <si>
+    <t>2016-06-12 04:32:30</t>
+  </si>
+  <si>
     <t>ATA_Center_Configuration.JPG</t>
   </si>
   <si>
@@ -485,6 +488,9 @@
   </si>
   <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-12 04:32:27</t>
   </si>
   <si>
     <t>openpublishing\test\conceptual\Image</t>
@@ -1720,15 +1726,15 @@
         <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>8</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>41</v>
@@ -1765,10 +1771,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>8</v>
@@ -1785,10 +1791,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>8</v>
@@ -1805,10 +1811,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>8</v>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>37</v>
@@ -1845,10 +1851,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>8</v>
@@ -1865,7 +1871,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>37</v>
@@ -1885,7 +1891,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>37</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>37</v>
@@ -1925,7 +1931,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -1965,7 +1971,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -2080,49 +2086,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
@@ -2136,16 +2142,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -2154,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -2183,37 +2189,37 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -2230,16 +2236,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -2248,19 +2254,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -2277,16 +2283,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -2295,19 +2301,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -2324,16 +2330,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -2342,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -2371,16 +2377,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -2389,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -2418,16 +2424,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -2436,19 +2442,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -2465,16 +2471,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -2483,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -2512,16 +2518,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -2530,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -2559,16 +2565,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -2577,19 +2583,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -2606,16 +2612,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -2624,19 +2630,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -2653,16 +2659,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -2671,19 +2677,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2700,16 +2706,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -2718,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2747,16 +2753,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -2765,19 +2771,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2794,16 +2800,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2812,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2841,16 +2847,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -2859,19 +2865,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -2888,16 +2894,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -2906,19 +2912,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -2935,16 +2941,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>8</v>
@@ -2953,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -2982,16 +2988,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -3000,19 +3006,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -3029,16 +3035,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -3047,19 +3053,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -3076,16 +3082,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -3094,19 +3100,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -3123,16 +3129,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -3141,19 +3147,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -3170,16 +3176,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -3188,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3217,16 +3223,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -3235,19 +3241,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3264,16 +3270,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -3282,19 +3288,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -3311,16 +3317,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -3329,19 +3335,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3358,16 +3364,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -3376,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -3405,16 +3411,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3423,19 +3429,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -3452,16 +3458,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -3470,19 +3476,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -3499,16 +3505,16 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -3517,19 +3523,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -3546,16 +3552,16 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -3564,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -3593,37 +3599,37 @@
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="N33" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -3640,16 +3646,16 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3658,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -3687,16 +3693,16 @@
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -3705,19 +3711,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -3734,16 +3740,16 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
@@ -3752,19 +3758,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -3781,37 +3787,37 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="N37" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -3828,16 +3834,16 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -3846,19 +3852,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -3875,16 +3881,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -3893,19 +3899,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -3922,16 +3928,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -3940,19 +3946,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -3969,16 +3975,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -3987,19 +3993,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -4016,16 +4022,16 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -4034,19 +4040,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -4063,16 +4069,16 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4081,19 +4087,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -4110,16 +4116,16 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -4128,19 +4134,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -4157,16 +4163,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4175,19 +4181,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -4204,16 +4210,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -4222,19 +4228,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -4251,16 +4257,16 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -4269,19 +4275,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -4298,16 +4304,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4316,19 +4322,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -4336,25 +4342,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>8</v>
@@ -4363,19 +4369,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -4383,7 +4389,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>41</v>
@@ -4392,16 +4398,16 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>8</v>
@@ -4410,19 +4416,19 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -4430,46 +4436,46 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="N51" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -4477,25 +4483,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>8</v>
@@ -4504,19 +4510,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -4524,25 +4530,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>8</v>
@@ -4551,19 +4557,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>37</v>
@@ -4580,16 +4586,16 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>8</v>
@@ -4598,19 +4604,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -4618,25 +4624,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>8</v>
@@ -4645,19 +4651,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>37</v>
@@ -4674,16 +4680,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4692,19 +4698,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4712,7 +4718,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>37</v>
@@ -4721,16 +4727,16 @@
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -4739,19 +4745,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>37</v>
@@ -4768,16 +4774,16 @@
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4786,19 +4792,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -4806,7 +4812,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -4815,37 +4821,37 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M59" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="N59" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -4853,7 +4859,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -4862,16 +4868,16 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>8</v>
@@ -4880,19 +4886,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -4900,7 +4906,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -4909,16 +4915,16 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>8</v>
@@ -4927,19 +4933,19 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>
@@ -5042,49 +5048,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
@@ -5098,13 +5104,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -5116,19 +5122,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -5145,13 +5151,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -5163,19 +5169,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -5192,13 +5198,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5210,19 +5216,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -5239,13 +5245,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -5257,19 +5263,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -5286,13 +5292,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -5304,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -5333,13 +5339,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -5351,19 +5357,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -5380,13 +5386,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -5398,19 +5404,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -5427,13 +5433,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -5445,19 +5451,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -5474,13 +5480,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -5492,19 +5498,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -5521,13 +5527,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -5539,19 +5545,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -5568,13 +5574,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -5586,19 +5592,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -5615,13 +5621,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -5633,19 +5639,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -5662,13 +5668,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -5680,19 +5686,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -5709,13 +5715,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
@@ -5727,19 +5733,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -5756,13 +5762,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>23</v>
@@ -5774,19 +5780,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5803,13 +5809,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
@@ -5821,19 +5827,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -5850,13 +5856,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -5868,19 +5874,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -5897,13 +5903,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -5915,19 +5921,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -5944,13 +5950,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -5962,19 +5968,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -5991,13 +5997,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -6009,19 +6015,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -6038,13 +6044,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -6056,19 +6062,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -6085,13 +6091,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -6103,19 +6109,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -6132,13 +6138,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -6150,19 +6156,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6179,13 +6185,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -6197,19 +6203,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6226,13 +6232,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -6244,19 +6250,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -6273,13 +6279,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -6291,19 +6297,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6320,13 +6326,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -6338,19 +6344,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -6367,13 +6373,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -6385,19 +6391,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -6414,13 +6420,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>10</v>
@@ -6432,19 +6438,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -6461,13 +6467,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>35</v>
@@ -6479,19 +6485,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -6508,13 +6514,13 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>10</v>
@@ -6526,19 +6532,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -6555,37 +6561,37 @@
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="N33" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -6602,13 +6608,13 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>10</v>
@@ -6620,19 +6626,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -6649,13 +6655,13 @@
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>10</v>
@@ -6667,19 +6673,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -6696,13 +6702,13 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>44</v>
@@ -6714,19 +6720,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -6743,13 +6749,13 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>44</v>
@@ -6761,19 +6767,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -6790,13 +6796,13 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>44</v>
@@ -6808,19 +6814,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -6837,13 +6843,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>44</v>
@@ -6855,19 +6861,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -6884,13 +6890,13 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>44</v>
@@ -6902,19 +6908,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -6931,13 +6937,13 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>50</v>
@@ -6949,19 +6955,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -6978,13 +6984,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>44</v>
@@ -6996,19 +7002,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -7025,13 +7031,13 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>44</v>
@@ -7043,19 +7049,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -7072,13 +7078,13 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>35</v>
@@ -7090,19 +7096,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -7119,13 +7125,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>55</v>
@@ -7137,19 +7143,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -7166,13 +7172,13 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>50</v>
@@ -7184,19 +7190,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -7213,13 +7219,13 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>55</v>
@@ -7231,19 +7237,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -7260,16 +7266,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -7278,19 +7284,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -7298,22 +7304,22 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -7325,19 +7331,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -7345,7 +7351,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>41</v>
@@ -7354,13 +7360,13 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>10</v>
@@ -7372,19 +7378,19 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -7392,46 +7398,46 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="N51" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -7439,22 +7445,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -7466,19 +7472,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -7486,22 +7492,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>10</v>
@@ -7513,19 +7519,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -7533,7 +7539,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>37</v>
@@ -7542,13 +7548,13 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -7560,19 +7566,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -7580,22 +7586,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>10</v>
@@ -7607,19 +7613,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -7627,7 +7633,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>37</v>
@@ -7636,13 +7642,13 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>10</v>
@@ -7654,19 +7660,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -7674,7 +7680,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>37</v>
@@ -7683,13 +7689,13 @@
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>10</v>
@@ -7701,19 +7707,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -7721,7 +7727,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>37</v>
@@ -7730,13 +7736,13 @@
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -7748,19 +7754,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -7768,7 +7774,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -7777,37 +7783,37 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="M59" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="N59" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -7815,7 +7821,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -7824,13 +7830,13 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>10</v>
@@ -7842,19 +7848,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -7862,7 +7868,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -7871,13 +7877,13 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>10</v>
@@ -7889,19 +7895,19 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -193,7 +193,7 @@
     <t>users-manual-content.md</t>
   </si>
   <si>
-    <t>2016-06-12 04:32:30</t>
+    <t>2016-06-12 06:00:11</t>
   </si>
   <si>
     <t>ATA_Center_Configuration.JPG</t>
@@ -490,7 +490,7 @@
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-06-12 04:32:27</t>
+    <t>2016-06-12 05:59:57</t>
   </si>
   <si>
     <t>openpublishing\test\conceptual\Image</t>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -193,7 +193,7 @@
     <t>users-manual-content.md</t>
   </si>
   <si>
-    <t>2016-06-12 06:00:11</t>
+    <t>2016-06-12 06:30:29</t>
   </si>
   <si>
     <t>ATA_Center_Configuration.JPG</t>
@@ -490,7 +490,7 @@
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-06-12 05:59:57</t>
+    <t>2016-06-12 06:30:26</t>
   </si>
   <si>
     <t>openpublishing\test\conceptual\Image</t>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>File Name</t>
   </si>
@@ -49,33 +49,33 @@
     <t>2016-05-25 07:50:46</t>
   </si>
   <si>
+    <t>multiple-topics-bar.experimental.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.experimental.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.experimental.md</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.md</t>
+  </si>
+  <si>
+    <t>single-topic.experimental.md</t>
+  </si>
+  <si>
+    <t>single-topic.md</t>
+  </si>
+  <si>
     <t>index.md</t>
   </si>
   <si>
-    <t>multiple-topics-bar.experimental.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.experimental.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.experimental.md</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.md</t>
-  </si>
-  <si>
-    <t>single-topic.experimental.md</t>
-  </si>
-  <si>
-    <t>single-topic.md</t>
-  </si>
-  <si>
     <t>large.md</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>iceberg.jpg</t>
   </si>
   <si>
+    <t>2016-06-12 07:00:45</t>
+  </si>
+  <si>
     <t>UM-AB-Portal-Experiment-New.png</t>
   </si>
   <si>
@@ -301,142 +304,145 @@
     <t>False</t>
   </si>
   <si>
+    <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.b2dc6798d40a4351c453299ae8b2cc8c6ae4ab4e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.experimental.9695f25e3786c84666a85d797741bca363b79f24.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.96866be8084a8e2c2e6f42872b6cc406d216d6e2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.experimental.ec8f896807eb094f82861165b0cd0792b541ed98.de-de.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.41e9841836ab4fd24846285274846c979199e46a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>single-topic.experimental.8b4e516cbf2629e5a9f5320bb921ecc585dc68fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\conceptual</t>
+  </si>
+  <si>
+    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\hubpage</t>
+  </si>
+  <si>
+    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-31 03:09:49</t>
+  </si>
+  <si>
+    <t>openpublishing\test</t>
+  </si>
+  <si>
+    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 05:54:30</t>
+  </si>
+  <si>
+    <t>openpublishing\test\redirectUrl</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\reference</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\restapi</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:16</t>
+  </si>
+  <si>
+    <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\index.md</t>
+  </si>
+  <si>
+    <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
+  </si>
+  <si>
+    <t>532748fbca6599349f0655e85e79d2103156bd9b.jpg</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
+  </si>
+  <si>
+    <t>7c634bd01edf790ef91ded6d44abee709be27adc.jpg</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
+  </si>
+  <si>
     <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.de-de.xlf</t>
   </si>
   <si>
-    <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.b2dc6798d40a4351c453299ae8b2cc8c6ae4ab4e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.experimental.9695f25e3786c84666a85d797741bca363b79f24.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.96866be8084a8e2c2e6f42872b6cc406d216d6e2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.experimental.ec8f896807eb094f82861165b0cd0792b541ed98.de-de.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.41e9841836ab4fd24846285274846c979199e46a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>single-topic.experimental.8b4e516cbf2629e5a9f5320bb921ecc585dc68fd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\conceptual</t>
-  </si>
-  <si>
-    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\hubpage</t>
-  </si>
-  <si>
-    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-31 03:09:49</t>
-  </si>
-  <si>
-    <t>openpublishing\test</t>
-  </si>
-  <si>
-    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-26 05:54:30</t>
-  </si>
-  <si>
-    <t>openpublishing\test\redirectUrl</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\reference</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\restapi</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-26 14:53:16</t>
-  </si>
-  <si>
-    <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\index.md</t>
-  </si>
-  <si>
-    <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
-  </si>
-  <si>
-    <t>532748fbca6599349f0655e85e79d2103156bd9b.jpg</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
-  </si>
-  <si>
-    <t>7c634bd01edf790ef91ded6d44abee709be27adc.jpg</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
+    <t>2016-06-12 07:00:41</t>
   </si>
   <si>
     <t>d8f60d16a863b25a5f10a18bc44a0c76614d4bd9.png</t>
@@ -547,91 +553,91 @@
     <t>control-panel.611c914fc083e64635d4fcb7c78760cde4272425.zh-cn.xlf</t>
   </si>
   <si>
+    <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-bar.b2dc6798d40a4351c453299ae8b2cc8c6ae4ab4e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.experimental.9695f25e3786c84666a85d797741bca363b79f24.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-baz.96866be8084a8e2c2e6f42872b6cc406d216d6e2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.experimental.ec8f896807eb094f82861165b0cd0792b541ed98.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>multiple-topics-foo.41e9841836ab4fd24846285274846c979199e46a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>single-topic.experimental.8b4e516cbf2629e5a9f5320bb921ecc585dc68fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-bar.b2dc6798d40a4351c453299ae8b2cc8c6ae4ab4e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.experimental.9695f25e3786c84666a85d797741bca363b79f24.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-baz.96866be8084a8e2c2e6f42872b6cc406d216d6e2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.experimental.ec8f896807eb094f82861165b0cd0792b541ed98.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>multiple-topics-foo.41e9841836ab4fd24846285274846c979199e46a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>single-topic.experimental.8b4e516cbf2629e5a9f5320bb921ecc585dc68fd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.c9c0369d0b155b081723894540fda2e788d91baf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>ui-components.dcec11372e71c4c665652bab5c7d58946b0a5468.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.zh-cn.xlf</t>
   </si>
   <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
@@ -991,7 +997,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -1011,7 +1017,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -1031,7 +1037,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -1066,12 +1072,12 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -1086,12 +1092,12 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
@@ -1106,12 +1112,12 @@
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -1131,7 +1137,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -1151,7 +1157,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
@@ -1211,7 +1217,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -1271,7 +1277,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -1331,7 +1337,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -1366,32 +1372,32 @@
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>37</v>
@@ -1411,10 +1417,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>8</v>
@@ -1431,7 +1437,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>41</v>
@@ -1451,10 +1457,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>8</v>
@@ -1466,12 +1472,12 @@
         <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>37</v>
@@ -1486,12 +1492,12 @@
         <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>37</v>
@@ -1506,12 +1512,12 @@
         <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>37</v>
@@ -1526,12 +1532,12 @@
         <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>37</v>
@@ -1546,12 +1552,12 @@
         <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>37</v>
@@ -1566,12 +1572,12 @@
         <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>37</v>
@@ -1586,12 +1592,12 @@
         <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>37</v>
@@ -1606,12 +1612,12 @@
         <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>37</v>
@@ -1626,12 +1632,12 @@
         <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>37</v>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>37</v>
@@ -1666,12 +1672,12 @@
         <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>37</v>
@@ -1686,12 +1692,12 @@
         <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>37</v>
@@ -1706,12 +1712,12 @@
         <v>38</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>7</v>
@@ -1726,15 +1732,15 @@
         <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>8</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>41</v>
@@ -1771,10 +1777,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>8</v>
@@ -1791,10 +1797,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>8</v>
@@ -1811,10 +1817,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>8</v>
@@ -1831,7 +1837,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>37</v>
@@ -1851,10 +1857,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>8</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>37</v>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>37</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>37</v>
@@ -1931,7 +1937,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -1971,7 +1977,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -1992,39 +1998,39 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="control-panel.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="index.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="multiple-topics-bar.experimental.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="multiple-topics-bar.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="multiple-topics-baz.experimental.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="multiple-topics-baz.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-foo.experimental.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="index.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="large.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="small.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="ui-components.md" r:id="rId15"/>
+    <hyperlink ref="A3" display="multiple-topics-bar.experimental.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="multiple-topics-bar.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="multiple-topics-baz.experimental.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="multiple-topics-baz.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="multiple-topics-foo.experimental.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="multiple-topics-foo.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="single-topic.experimental.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="single-topic.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="index.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="large.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="small.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="ui-components.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="index.md" r:id="rId15"/>
     <hyperlink ref="A16" display="index.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="index.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="AbsoluteUrl.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="AbsoluteUrlWithAAD.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="EmptyRelativeUrl.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="index.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="InvalidAbsoluteUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="InvalidRelativeUrl.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="RelativePage.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="RelativeUrl.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="index.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="contacts-operations.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="entity-and-complex-type-reference.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="index.md" r:id="rId29"/>
+    <hyperlink ref="A17" display="AbsoluteUrl.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="AbsoluteUrlWithAAD.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="EmptyRelativeUrl.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="index.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="InvalidAbsoluteUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="InvalidRelativeUrl.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="RelativePage.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="RelativeUrl.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="index.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="contacts-operations.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="entity-and-complex-type-reference.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="TOC.md" r:id="rId29"/>
     <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="content-ab-testing-flow.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="global-ab-testing-flow.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="iceberg.experimental.jpg" r:id="rId34"/>
-    <hyperlink ref="A35" display="iceberg.jpg" r:id="rId35"/>
+    <hyperlink ref="A31" display="content-ab-testing-flow.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="global-ab-testing-flow.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="iceberg.experimental.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="iceberg.jpg" r:id="rId34"/>
+    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
     <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
     <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
     <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
@@ -2086,49 +2092,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -2142,16 +2148,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -2160,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -2189,16 +2195,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -2207,13 +2213,13 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
@@ -2236,16 +2242,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -2254,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -2283,16 +2289,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -2301,19 +2307,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -2330,16 +2336,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -2348,19 +2354,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -2377,16 +2383,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -2395,19 +2401,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -2424,16 +2430,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -2442,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -2471,16 +2477,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -2489,19 +2495,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -2518,16 +2524,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -2536,19 +2542,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -2565,16 +2571,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -2583,19 +2589,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -2603,7 +2609,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -2618,10 +2624,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -2630,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
@@ -2650,7 +2656,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -2665,10 +2671,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -2677,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2697,7 +2703,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -2712,10 +2718,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -2724,19 +2730,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2744,7 +2750,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -2753,16 +2759,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -2771,19 +2777,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2791,7 +2797,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -2800,16 +2806,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2818,19 +2824,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
@@ -2847,16 +2853,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -2865,13 +2871,13 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
@@ -2885,7 +2891,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -2900,10 +2906,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -2912,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -2932,7 +2938,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -2947,10 +2953,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>8</v>
@@ -2959,19 +2965,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -2994,10 +3000,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -3006,19 +3012,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
@@ -3041,10 +3047,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -3053,19 +3059,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -3073,7 +3079,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
@@ -3088,10 +3094,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -3100,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -3135,10 +3141,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -3147,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -3167,7 +3173,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -3182,10 +3188,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -3194,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3214,7 +3220,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -3223,16 +3229,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -3241,19 +3247,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3261,7 +3267,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
@@ -3270,16 +3276,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -3288,13 +3294,13 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
@@ -3308,7 +3314,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -3323,10 +3329,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -3335,19 +3341,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -3370,10 +3376,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -3382,19 +3388,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -3402,7 +3408,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -3417,10 +3423,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3429,19 +3435,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -3458,16 +3464,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -3476,19 +3482,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -3496,25 +3502,25 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -3523,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -3543,7 +3549,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>37</v>
@@ -3552,16 +3558,16 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -3570,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
@@ -3582,7 +3588,7 @@
         <v>135</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -3590,25 +3596,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -3617,7 +3623,7 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
@@ -3626,10 +3632,10 @@
         <v>134</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -3637,7 +3643,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>41</v>
@@ -3646,16 +3652,16 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3664,7 +3670,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
@@ -3673,10 +3679,10 @@
         <v>134</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -3684,25 +3690,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -3711,19 +3717,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -3731,7 +3737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>37</v>
@@ -3740,16 +3746,16 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
@@ -3758,7 +3764,7 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
@@ -3767,10 +3773,10 @@
         <v>134</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -3778,7 +3784,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>37</v>
@@ -3787,17 +3793,17 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
@@ -3814,10 +3820,10 @@
         <v>134</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -3825,7 +3831,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>37</v>
@@ -3834,16 +3840,16 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -3852,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
@@ -3861,10 +3867,10 @@
         <v>134</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>37</v>
@@ -3881,16 +3887,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -3899,7 +3905,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
@@ -3908,10 +3914,10 @@
         <v>134</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -3919,7 +3925,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>37</v>
@@ -3928,16 +3934,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -3946,7 +3952,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
@@ -3955,10 +3961,10 @@
         <v>134</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -3966,7 +3972,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>37</v>
@@ -3975,16 +3981,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -3993,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
@@ -4002,10 +4008,10 @@
         <v>134</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -4013,7 +4019,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>37</v>
@@ -4022,16 +4028,16 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -4040,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
@@ -4049,10 +4055,10 @@
         <v>134</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -4060,7 +4066,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>37</v>
@@ -4069,16 +4075,16 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4087,7 +4093,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
@@ -4096,10 +4102,10 @@
         <v>134</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -4107,7 +4113,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>37</v>
@@ -4116,13 +4122,13 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>132</v>
@@ -4134,7 +4140,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
@@ -4143,10 +4149,10 @@
         <v>134</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -4154,7 +4160,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>37</v>
@@ -4163,16 +4169,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4181,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
@@ -4190,10 +4196,10 @@
         <v>134</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>37</v>
@@ -4210,16 +4216,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -4228,7 +4234,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
@@ -4237,10 +4243,10 @@
         <v>134</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -4248,7 +4254,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>37</v>
@@ -4257,17 +4263,17 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
@@ -4284,10 +4290,10 @@
         <v>134</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -4295,7 +4301,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>7</v>
@@ -4304,16 +4310,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4322,19 +4328,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -4342,25 +4348,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>8</v>
@@ -4369,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
@@ -4378,10 +4384,10 @@
         <v>134</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -4389,7 +4395,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>41</v>
@@ -4398,16 +4404,16 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>8</v>
@@ -4416,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
@@ -4425,10 +4431,10 @@
         <v>134</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -4436,25 +4442,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>8</v>
@@ -4463,7 +4469,7 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
@@ -4472,10 +4478,10 @@
         <v>134</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -4483,25 +4489,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>8</v>
@@ -4510,7 +4516,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
@@ -4519,10 +4525,10 @@
         <v>134</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -4530,25 +4536,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>8</v>
@@ -4557,7 +4563,7 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
@@ -4566,10 +4572,10 @@
         <v>134</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -4577,7 +4583,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>37</v>
@@ -4586,16 +4592,16 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>8</v>
@@ -4604,7 +4610,7 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
@@ -4613,10 +4619,10 @@
         <v>134</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -4624,25 +4630,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>8</v>
@@ -4651,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
@@ -4660,10 +4666,10 @@
         <v>134</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -4671,7 +4677,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>37</v>
@@ -4680,16 +4686,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4698,7 +4704,7 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
@@ -4707,10 +4713,10 @@
         <v>134</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4718,7 +4724,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>37</v>
@@ -4727,16 +4733,16 @@
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -4745,7 +4751,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
@@ -4754,10 +4760,10 @@
         <v>134</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4765,7 +4771,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>37</v>
@@ -4774,16 +4780,16 @@
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4792,7 +4798,7 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
@@ -4801,10 +4807,10 @@
         <v>134</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -4812,7 +4818,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -4821,16 +4827,16 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>8</v>
@@ -4839,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
@@ -4848,10 +4854,10 @@
         <v>134</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -4859,7 +4865,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -4868,16 +4874,16 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>8</v>
@@ -4886,7 +4892,7 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
@@ -4895,10 +4901,10 @@
         <v>134</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -4906,7 +4912,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -4915,16 +4921,16 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>8</v>
@@ -4933,7 +4939,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
@@ -4942,10 +4948,10 @@
         <v>134</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>
@@ -4954,39 +4960,39 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="control-panel.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="index.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="multiple-topics-bar.experimental.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="multiple-topics-bar.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="multiple-topics-baz.experimental.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="multiple-topics-baz.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-foo.experimental.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="index.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="large.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="small.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="ui-components.md" r:id="rId15"/>
+    <hyperlink ref="A3" display="multiple-topics-bar.experimental.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="multiple-topics-bar.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="multiple-topics-baz.experimental.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="multiple-topics-baz.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="multiple-topics-foo.experimental.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="multiple-topics-foo.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="single-topic.experimental.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="single-topic.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="index.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="large.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="small.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="ui-components.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="index.md" r:id="rId15"/>
     <hyperlink ref="A16" display="index.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="index.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="AbsoluteUrl.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="AbsoluteUrlWithAAD.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="EmptyRelativeUrl.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="index.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="InvalidAbsoluteUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="InvalidRelativeUrl.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="RelativePage.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="RelativeUrl.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="index.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="contacts-operations.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="entity-and-complex-type-reference.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="index.md" r:id="rId29"/>
+    <hyperlink ref="A17" display="AbsoluteUrl.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="AbsoluteUrlWithAAD.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="EmptyRelativeUrl.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="index.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="InvalidAbsoluteUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="InvalidRelativeUrl.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="RelativePage.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="RelativeUrl.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="index.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="contacts-operations.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="entity-and-complex-type-reference.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="TOC.md" r:id="rId29"/>
     <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="content-ab-testing-flow.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="global-ab-testing-flow.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="iceberg.experimental.jpg" r:id="rId34"/>
-    <hyperlink ref="A35" display="iceberg.jpg" r:id="rId35"/>
+    <hyperlink ref="A31" display="content-ab-testing-flow.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="global-ab-testing-flow.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="iceberg.experimental.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="iceberg.jpg" r:id="rId34"/>
+    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
     <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
     <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
     <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
@@ -5048,49 +5054,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -5104,13 +5110,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -5122,19 +5128,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -5151,13 +5157,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -5169,13 +5175,13 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
@@ -5198,13 +5204,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5216,19 +5222,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -5245,13 +5251,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -5263,19 +5269,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -5292,13 +5298,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -5310,19 +5316,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -5339,13 +5345,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -5357,19 +5363,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -5386,13 +5392,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -5404,19 +5410,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -5433,13 +5439,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -5451,19 +5457,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -5480,13 +5486,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -5498,19 +5504,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -5527,13 +5533,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -5545,19 +5551,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -5565,7 +5571,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -5580,7 +5586,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -5592,13 +5598,13 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
@@ -5612,7 +5618,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -5627,7 +5633,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -5639,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -5659,7 +5665,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -5674,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -5686,19 +5692,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -5706,7 +5712,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -5715,16 +5721,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -5733,19 +5739,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -5753,7 +5759,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -5762,16 +5768,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -5780,19 +5786,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5800,7 +5806,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
@@ -5809,16 +5815,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -5827,13 +5833,13 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
@@ -5847,7 +5853,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -5862,7 +5868,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -5874,19 +5880,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -5894,7 +5900,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -5909,7 +5915,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -5921,19 +5927,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -5941,7 +5947,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -5956,7 +5962,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -5968,19 +5974,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -5988,7 +5994,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
@@ -6003,7 +6009,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -6015,19 +6021,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -6035,7 +6041,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
@@ -6050,7 +6056,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -6062,19 +6068,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -6082,7 +6088,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -6097,7 +6103,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -6109,19 +6115,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -6129,7 +6135,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -6144,7 +6150,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -6156,19 +6162,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6176,7 +6182,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -6185,13 +6191,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -6203,19 +6209,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6223,7 +6229,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
@@ -6232,13 +6238,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -6250,13 +6256,13 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
@@ -6270,7 +6276,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -6285,7 +6291,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -6297,19 +6303,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6317,7 +6323,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -6332,7 +6338,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -6344,19 +6350,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -6364,7 +6370,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -6379,7 +6385,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -6391,19 +6397,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -6420,16 +6426,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -6438,19 +6444,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -6458,25 +6464,25 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -6485,19 +6491,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -6505,7 +6511,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>37</v>
@@ -6514,13 +6520,13 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>10</v>
@@ -6532,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
@@ -6544,7 +6550,7 @@
         <v>135</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -6552,22 +6558,22 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -6579,7 +6585,7 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
@@ -6588,10 +6594,10 @@
         <v>134</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>41</v>
@@ -6608,13 +6614,13 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>10</v>
@@ -6626,7 +6632,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
@@ -6635,10 +6641,10 @@
         <v>134</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -6646,25 +6652,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -6673,19 +6679,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -6693,7 +6699,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>37</v>
@@ -6702,16 +6708,16 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
@@ -6720,7 +6726,7 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
@@ -6729,10 +6735,10 @@
         <v>134</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -6740,7 +6746,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>37</v>
@@ -6749,16 +6755,16 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
@@ -6767,7 +6773,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
@@ -6776,10 +6782,10 @@
         <v>134</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -6787,7 +6793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>37</v>
@@ -6796,16 +6802,16 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -6814,7 +6820,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
@@ -6823,10 +6829,10 @@
         <v>134</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -6834,7 +6840,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>37</v>
@@ -6843,16 +6849,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -6861,7 +6867,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
@@ -6870,10 +6876,10 @@
         <v>134</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>37</v>
@@ -6890,16 +6896,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -6908,7 +6914,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
@@ -6917,10 +6923,10 @@
         <v>134</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -6928,7 +6934,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>37</v>
@@ -6937,16 +6943,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -6955,7 +6961,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
@@ -6964,10 +6970,10 @@
         <v>134</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -6975,7 +6981,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>37</v>
@@ -6984,16 +6990,16 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -7002,7 +7008,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
@@ -7011,10 +7017,10 @@
         <v>134</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -7022,7 +7028,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>37</v>
@@ -7031,16 +7037,16 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -7049,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
@@ -7058,10 +7064,10 @@
         <v>134</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>37</v>
@@ -7078,13 +7084,13 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>35</v>
@@ -7096,7 +7102,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
@@ -7105,10 +7111,10 @@
         <v>134</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -7116,7 +7122,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>37</v>
@@ -7125,16 +7131,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -7143,7 +7149,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
@@ -7152,10 +7158,10 @@
         <v>134</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -7163,7 +7169,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>37</v>
@@ -7172,16 +7178,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -7190,7 +7196,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
@@ -7199,10 +7205,10 @@
         <v>134</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -7210,7 +7216,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>37</v>
@@ -7219,16 +7225,16 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -7237,7 +7243,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
@@ -7246,10 +7252,10 @@
         <v>134</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -7257,7 +7263,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>7</v>
@@ -7266,16 +7272,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -7284,19 +7290,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -7304,22 +7310,22 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -7331,7 +7337,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
@@ -7340,10 +7346,10 @@
         <v>134</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -7351,7 +7357,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>41</v>
@@ -7360,13 +7366,13 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>10</v>
@@ -7378,7 +7384,7 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
@@ -7387,10 +7393,10 @@
         <v>134</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -7398,22 +7404,22 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>10</v>
@@ -7425,7 +7431,7 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
@@ -7434,10 +7440,10 @@
         <v>134</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -7445,22 +7451,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -7472,7 +7478,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
@@ -7481,10 +7487,10 @@
         <v>134</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -7492,22 +7498,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>10</v>
@@ -7519,7 +7525,7 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
@@ -7528,10 +7534,10 @@
         <v>134</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -7539,7 +7545,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>37</v>
@@ -7548,13 +7554,13 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -7566,7 +7572,7 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
@@ -7575,10 +7581,10 @@
         <v>134</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -7586,22 +7592,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>10</v>
@@ -7613,7 +7619,7 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
@@ -7622,10 +7628,10 @@
         <v>134</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -7633,7 +7639,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>37</v>
@@ -7642,13 +7648,13 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>10</v>
@@ -7660,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
@@ -7669,10 +7675,10 @@
         <v>134</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -7680,7 +7686,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>37</v>
@@ -7689,13 +7695,13 @@
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>10</v>
@@ -7707,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
@@ -7716,10 +7722,10 @@
         <v>134</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -7727,7 +7733,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>37</v>
@@ -7736,13 +7742,13 @@
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -7754,7 +7760,7 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
@@ -7763,10 +7769,10 @@
         <v>134</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -7774,7 +7780,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -7783,13 +7789,13 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>10</v>
@@ -7801,7 +7807,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
@@ -7810,10 +7816,10 @@
         <v>134</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -7821,7 +7827,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -7830,13 +7836,13 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>10</v>
@@ -7848,7 +7854,7 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
@@ -7857,10 +7863,10 @@
         <v>134</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -7868,7 +7874,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -7877,13 +7883,13 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>10</v>
@@ -7895,7 +7901,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
@@ -7904,10 +7910,10 @@
         <v>134</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>
@@ -7916,39 +7922,39 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="control-panel.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="index.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="multiple-topics-bar.experimental.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="multiple-topics-bar.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="multiple-topics-baz.experimental.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="multiple-topics-baz.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-foo.experimental.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-foo.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="single-topic.experimental.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="single-topic.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="index.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="large.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="small.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="ui-components.md" r:id="rId15"/>
+    <hyperlink ref="A3" display="multiple-topics-bar.experimental.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="multiple-topics-bar.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="multiple-topics-baz.experimental.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="multiple-topics-baz.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="multiple-topics-foo.experimental.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="multiple-topics-foo.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="single-topic.experimental.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="single-topic.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="index.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="large.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="small.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="ui-components.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="index.md" r:id="rId15"/>
     <hyperlink ref="A16" display="index.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="index.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="AbsoluteUrl.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="AbsoluteUrlWithAAD.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="EmptyRelativeUrl.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="index.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="InvalidAbsoluteUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="InvalidRelativeUrl.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="RelativePage.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="RelativeUrl.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="index.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="contacts-operations.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="entity-and-complex-type-reference.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="index.md" r:id="rId29"/>
+    <hyperlink ref="A17" display="AbsoluteUrl.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="AbsoluteUrlWithAAD.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="EmptyRelativeUrl.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="index.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="InvalidAbsoluteUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="InvalidRelativeUrl.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="RelativePage.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="RelativeUrl.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="index.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="contacts-operations.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="entity-and-complex-type-reference.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="TOC.md" r:id="rId29"/>
     <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="TOC.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="content-ab-testing-flow.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="global-ab-testing-flow.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="iceberg.experimental.jpg" r:id="rId34"/>
-    <hyperlink ref="A35" display="iceberg.jpg" r:id="rId35"/>
+    <hyperlink ref="A31" display="content-ab-testing-flow.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="global-ab-testing-flow.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="iceberg.experimental.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="iceberg.jpg" r:id="rId34"/>
+    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
     <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
     <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
     <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>File Name</t>
   </si>
@@ -226,6 +226,9 @@
     <t>ATAGWDomainController.png</t>
   </si>
   <si>
+    <t>2016-06-15 05:40:43</t>
+  </si>
+  <si>
     <t>azure_active_directory_icon.png</t>
   </si>
   <si>
@@ -529,6 +532,15 @@
     <t>dddd652fb096923a6ac044e9d8c151dc1af2982f.png</t>
   </si>
   <si>
+    <t>openpublishing\test\f1query</t>
+  </si>
+  <si>
+    <t>index.87419c3db469fda983e0d21da78034030aab1efe.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-15 05:40:40</t>
+  </si>
+  <si>
     <t>openpublishing\test\hubpage\Image</t>
   </si>
   <si>
@@ -641,6 +653,9 @@
   </si>
   <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.87419c3db469fda983e0d21da78034030aab1efe.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -697,8 +712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O61" headerRowCount="1">
-  <autoFilter ref="A1:O61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O62" headerRowCount="1">
+  <autoFilter ref="A1:O62"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -721,8 +736,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O61" headerRowCount="1">
-  <autoFilter ref="A1:O61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O62" headerRowCount="1">
+  <autoFilter ref="A1:O62"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -745,8 +760,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F61" headerRowCount="1">
-  <autoFilter ref="A1:F61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F62" headerRowCount="1">
+  <autoFilter ref="A1:F62"/>
   <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -761,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1897,22 +1912,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1992,6 +2007,26 @@
         <v>38</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2052,11 +2087,12 @@
     <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
     <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
     <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="azure_active_directory_icon.png" r:id="rId57"/>
-    <hyperlink ref="A58" display="conditional access_exchange_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="intune_byod_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="mobile_devices_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_engagement_icon.png" r:id="rId61"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2067,7 +2103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2092,49 +2128,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -2148,16 +2184,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -2166,19 +2202,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -2195,16 +2231,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -2213,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -2242,16 +2278,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -2260,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -2289,16 +2325,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -2307,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -2336,16 +2372,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -2354,19 +2390,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -2383,16 +2419,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -2401,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -2430,16 +2466,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -2448,19 +2484,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -2477,16 +2513,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -2495,19 +2531,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -2524,16 +2560,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -2542,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -2571,16 +2607,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -2589,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -2618,16 +2654,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -2636,19 +2672,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -2665,16 +2701,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -2683,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2712,16 +2748,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -2730,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2759,16 +2795,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -2777,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2806,16 +2842,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2824,19 +2860,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2853,16 +2889,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -2871,19 +2907,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -2900,16 +2936,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -2918,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -2947,16 +2983,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>8</v>
@@ -2965,19 +3001,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -2994,16 +3030,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -3012,19 +3048,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -3041,16 +3077,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -3059,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -3088,16 +3124,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -3106,19 +3142,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -3135,16 +3171,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -3153,19 +3189,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -3182,16 +3218,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -3200,19 +3236,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3229,16 +3265,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -3247,19 +3283,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3276,16 +3312,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -3294,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -3323,16 +3359,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -3341,19 +3377,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3370,16 +3406,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -3388,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -3417,16 +3453,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3435,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -3464,16 +3500,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -3482,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -3511,16 +3547,16 @@
         <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -3529,19 +3565,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -3558,37 +3594,37 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="N32" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -3605,16 +3641,16 @@
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -3623,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -3652,16 +3688,16 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3670,19 +3706,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -3699,16 +3735,16 @@
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -3717,19 +3753,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -3746,16 +3782,16 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
@@ -3764,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -3793,37 +3829,37 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="N37" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -3840,16 +3876,16 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -3858,19 +3894,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -3887,16 +3923,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -3905,19 +3941,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -3934,16 +3970,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -3952,19 +3988,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -3981,16 +4017,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -3999,19 +4035,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -4028,16 +4064,16 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -4046,19 +4082,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -4075,16 +4111,16 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4093,19 +4129,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -4122,16 +4158,16 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -4140,19 +4176,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -4169,16 +4205,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4187,19 +4223,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -4216,16 +4252,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -4234,19 +4270,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -4263,16 +4299,16 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -4281,19 +4317,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -4310,16 +4346,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4328,19 +4364,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -4357,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>8</v>
@@ -4375,19 +4411,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -4404,37 +4440,37 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="N50" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -4451,16 +4487,16 @@
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>8</v>
@@ -4469,19 +4505,19 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -4498,16 +4534,16 @@
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>8</v>
@@ -4516,19 +4552,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -4545,16 +4581,16 @@
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>8</v>
@@ -4563,19 +4599,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -4592,16 +4628,16 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>8</v>
@@ -4610,19 +4646,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -4639,16 +4675,16 @@
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>8</v>
@@ -4657,19 +4693,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -4686,16 +4722,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4704,19 +4740,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4724,25 +4760,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -4751,19 +4787,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4780,16 +4816,16 @@
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4798,19 +4834,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -4827,16 +4863,16 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>8</v>
@@ -4845,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -4874,16 +4910,16 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>8</v>
@@ -4892,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -4921,39 +4957,86 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="2" t="s">
+      <c r="N61" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O61" s="0" t="s">
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O62" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5014,11 +5097,12 @@
     <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
     <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
     <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="azure_active_directory_icon.png" r:id="rId57"/>
-    <hyperlink ref="A58" display="conditional access_exchange_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="intune_byod_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="mobile_devices_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_engagement_icon.png" r:id="rId61"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5029,7 +5113,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5054,49 +5138,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -5110,13 +5194,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -5128,19 +5212,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -5157,13 +5241,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -5175,19 +5259,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -5204,13 +5288,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5222,19 +5306,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -5251,13 +5335,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -5269,19 +5353,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -5298,13 +5382,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -5316,19 +5400,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -5345,13 +5429,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -5363,19 +5447,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -5392,13 +5476,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -5410,19 +5494,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -5439,13 +5523,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -5457,19 +5541,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -5486,13 +5570,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -5504,19 +5588,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -5533,13 +5617,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -5551,19 +5635,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -5580,13 +5664,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -5598,19 +5682,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -5627,13 +5711,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -5645,19 +5729,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -5674,13 +5758,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -5692,19 +5776,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -5721,13 +5805,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>23</v>
@@ -5739,19 +5823,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -5768,13 +5852,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
@@ -5786,19 +5870,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5815,13 +5899,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
@@ -5833,19 +5917,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -5862,13 +5946,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -5880,19 +5964,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -5909,13 +5993,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -5927,19 +6011,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -5956,13 +6040,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -5974,19 +6058,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -6003,13 +6087,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -6021,19 +6105,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -6050,13 +6134,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -6068,19 +6152,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -6097,13 +6181,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -6115,19 +6199,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -6144,13 +6228,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -6162,19 +6246,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6191,13 +6275,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -6209,19 +6293,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6238,13 +6322,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -6256,19 +6340,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -6285,13 +6369,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -6303,19 +6387,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6332,13 +6416,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -6350,19 +6434,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -6379,13 +6463,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -6397,19 +6481,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -6426,13 +6510,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
@@ -6444,19 +6528,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -6473,13 +6557,13 @@
         <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>10</v>
@@ -6491,19 +6575,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -6520,37 +6604,37 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="N32" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -6567,13 +6651,13 @@
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -6585,19 +6669,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -6614,13 +6698,13 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>10</v>
@@ -6632,19 +6716,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -6661,13 +6745,13 @@
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
@@ -6679,19 +6763,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -6708,13 +6792,13 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>45</v>
@@ -6726,19 +6810,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -6755,13 +6839,13 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>45</v>
@@ -6773,19 +6857,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -6802,13 +6886,13 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>45</v>
@@ -6820,19 +6904,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -6849,13 +6933,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>45</v>
@@ -6867,19 +6951,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -6896,13 +6980,13 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>45</v>
@@ -6914,19 +6998,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -6943,13 +7027,13 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -6961,19 +7045,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -6990,13 +7074,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>45</v>
@@ -7008,19 +7092,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -7037,13 +7121,13 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>45</v>
@@ -7055,19 +7139,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -7084,13 +7168,13 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>35</v>
@@ -7102,19 +7186,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -7131,13 +7215,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>56</v>
@@ -7149,19 +7233,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -7178,13 +7262,13 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>51</v>
@@ -7196,19 +7280,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -7225,13 +7309,13 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>56</v>
@@ -7243,19 +7327,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -7272,13 +7356,13 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>60</v>
@@ -7290,19 +7374,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -7319,13 +7403,13 @@
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -7337,19 +7421,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -7366,37 +7450,37 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="N50" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -7413,13 +7497,13 @@
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>10</v>
@@ -7431,19 +7515,19 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -7460,13 +7544,13 @@
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -7478,19 +7562,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -7507,13 +7591,13 @@
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>10</v>
@@ -7525,19 +7609,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -7554,13 +7638,13 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -7572,19 +7656,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -7601,13 +7685,13 @@
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>10</v>
@@ -7619,19 +7703,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -7648,13 +7732,13 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>10</v>
@@ -7666,19 +7750,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -7686,26 +7770,26 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
       </c>
@@ -7713,19 +7797,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -7742,13 +7826,13 @@
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -7760,19 +7844,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -7789,13 +7873,13 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>10</v>
@@ -7807,19 +7891,19 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -7836,13 +7920,13 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>10</v>
@@ -7854,19 +7938,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -7883,39 +7967,86 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="N61" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O62" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7976,11 +8107,12 @@
     <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
     <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
     <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="azure_active_directory_icon.png" r:id="rId57"/>
-    <hyperlink ref="A58" display="conditional access_exchange_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="intune_byod_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="mobile_devices_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_engagement_icon.png" r:id="rId61"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>File Name</t>
   </si>
@@ -226,6 +226,12 @@
     <t>ATAGWDomainController.png</t>
   </si>
   <si>
+    <t>F1QueryIntegrationTest-1.md</t>
+  </si>
+  <si>
+    <t>2016-06-15 10:12:19</t>
+  </si>
+  <si>
     <t>2016-06-15 05:40:43</t>
   </si>
   <si>
@@ -535,6 +541,12 @@
     <t>openpublishing\test\f1query</t>
   </si>
   <si>
+    <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-15 10:12:11</t>
+  </si>
+  <si>
     <t>index.87419c3db469fda983e0d21da78034030aab1efe.de-de.xlf</t>
   </si>
   <si>
@@ -653,6 +665,9 @@
   </si>
   <si>
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.zh-cn.xlf</t>
   </si>
   <si>
     <t>index.87419c3db469fda983e0d21da78034030aab1efe.zh-cn.xlf</t>
@@ -712,8 +727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O62" headerRowCount="1">
-  <autoFilter ref="A1:O62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O63" headerRowCount="1">
+  <autoFilter ref="A1:O63"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -736,8 +751,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O62" headerRowCount="1">
-  <autoFilter ref="A1:O62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O63" headerRowCount="1">
+  <autoFilter ref="A1:O63"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -760,8 +775,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F62" headerRowCount="1">
-  <autoFilter ref="A1:F62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F63" headerRowCount="1">
+  <autoFilter ref="A1:F63"/>
   <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -776,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1912,7 +1927,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -1927,15 +1942,15 @@
         <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>8</v>
@@ -1947,12 +1962,12 @@
         <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -1972,7 +1987,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -1992,7 +2007,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -2012,7 +2027,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>37</v>
@@ -2027,6 +2042,26 @@
         <v>38</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2087,12 +2122,13 @@
     <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
     <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
     <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
+    <hyperlink ref="A57" display="F1QueryIntegrationTest-1.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2103,7 +2139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2128,49 +2164,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -2184,16 +2220,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -2202,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -2231,16 +2267,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -2249,19 +2285,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -2278,16 +2314,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -2296,19 +2332,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -2325,16 +2361,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -2343,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -2372,16 +2408,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -2390,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -2419,16 +2455,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -2437,19 +2473,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -2466,16 +2502,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -2484,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -2513,16 +2549,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -2531,19 +2567,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -2560,16 +2596,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -2578,19 +2614,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -2607,16 +2643,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -2625,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -2654,16 +2690,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -2672,19 +2708,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -2701,16 +2737,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -2719,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2748,16 +2784,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -2766,19 +2802,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2795,16 +2831,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -2813,19 +2849,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2842,16 +2878,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2860,19 +2896,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2889,16 +2925,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -2907,19 +2943,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -2936,16 +2972,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -2954,19 +2990,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -2983,16 +3019,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>8</v>
@@ -3001,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -3030,16 +3066,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -3048,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -3077,16 +3113,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -3095,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -3124,16 +3160,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -3142,19 +3178,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -3171,16 +3207,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -3189,19 +3225,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -3218,16 +3254,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -3236,19 +3272,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3265,16 +3301,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -3283,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3312,16 +3348,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -3330,19 +3366,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -3359,16 +3395,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -3377,19 +3413,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3406,16 +3442,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -3424,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -3453,16 +3489,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3471,19 +3507,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -3500,16 +3536,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -3518,19 +3554,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -3547,16 +3583,16 @@
         <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -3565,19 +3601,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -3594,37 +3630,37 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="M32" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -3641,16 +3677,16 @@
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -3659,19 +3695,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -3688,16 +3724,16 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3706,19 +3742,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -3735,16 +3771,16 @@
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -3753,19 +3789,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -3782,16 +3818,16 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
@@ -3800,19 +3836,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -3829,17 +3865,17 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
       </c>
@@ -3847,19 +3883,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -3876,37 +3912,37 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="N38" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -3923,16 +3959,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -3941,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -3970,16 +4006,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -3988,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -4017,16 +4053,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -4035,19 +4071,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -4064,16 +4100,16 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -4082,19 +4118,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -4111,16 +4147,16 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4129,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -4158,16 +4194,16 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -4176,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -4205,16 +4241,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4223,19 +4259,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -4252,16 +4288,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -4270,19 +4306,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -4299,17 +4335,17 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
       </c>
@@ -4317,19 +4353,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -4346,16 +4382,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4364,19 +4400,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -4393,16 +4429,16 @@
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>8</v>
@@ -4411,19 +4447,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -4440,16 +4476,16 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>8</v>
@@ -4458,19 +4494,19 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -4487,37 +4523,37 @@
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M51" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="N51" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -4534,16 +4570,16 @@
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>8</v>
@@ -4552,19 +4588,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -4581,16 +4617,16 @@
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>8</v>
@@ -4599,19 +4635,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -4628,16 +4664,16 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>8</v>
@@ -4646,19 +4682,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -4675,16 +4711,16 @@
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>8</v>
@@ -4693,19 +4729,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -4722,16 +4758,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4740,19 +4776,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4760,7 +4796,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -4769,16 +4805,16 @@
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -4787,19 +4823,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4807,25 +4843,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4834,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -4854,7 +4890,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -4863,16 +4899,16 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>8</v>
@@ -4881,19 +4917,19 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -4901,7 +4937,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -4910,16 +4946,16 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>8</v>
@@ -4928,19 +4964,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -4948,7 +4984,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -4957,16 +4993,16 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>8</v>
@@ -4975,19 +5011,19 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>
@@ -4995,7 +5031,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>37</v>
@@ -5004,39 +5040,86 @@
         <v>38</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>177</v>
-      </c>
       <c r="N62" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5097,12 +5180,13 @@
     <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
     <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
     <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
+    <hyperlink ref="A57" display="F1QueryIntegrationTest-1.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5113,7 +5197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5138,49 +5222,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -5194,13 +5278,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -5212,19 +5296,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -5241,13 +5325,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -5259,19 +5343,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -5288,13 +5372,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5306,19 +5390,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -5335,13 +5419,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -5353,19 +5437,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -5382,13 +5466,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -5400,19 +5484,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -5429,13 +5513,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -5447,19 +5531,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -5476,13 +5560,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -5494,19 +5578,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -5523,13 +5607,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -5541,19 +5625,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -5570,13 +5654,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -5588,19 +5672,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -5617,13 +5701,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -5635,19 +5719,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -5664,13 +5748,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -5682,19 +5766,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -5711,13 +5795,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -5729,19 +5813,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -5758,13 +5842,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -5776,19 +5860,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -5805,13 +5889,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>23</v>
@@ -5823,19 +5907,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -5852,13 +5936,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
@@ -5870,19 +5954,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5899,13 +5983,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
@@ -5917,19 +6001,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -5946,13 +6030,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -5964,19 +6048,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -5993,13 +6077,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -6011,19 +6095,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -6040,13 +6124,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -6058,19 +6142,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -6087,13 +6171,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -6105,19 +6189,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -6134,13 +6218,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -6152,19 +6236,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -6181,13 +6265,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -6199,19 +6283,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -6228,13 +6312,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -6246,19 +6330,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6275,13 +6359,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -6293,19 +6377,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6322,13 +6406,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -6340,19 +6424,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -6369,13 +6453,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -6387,19 +6471,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6416,13 +6500,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -6434,19 +6518,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -6463,13 +6547,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -6481,19 +6565,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -6510,13 +6594,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>35</v>
@@ -6528,19 +6612,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -6557,13 +6641,13 @@
         <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>10</v>
@@ -6575,19 +6659,19 @@
         <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -6604,37 +6688,37 @@
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="M32" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -6651,13 +6735,13 @@
         <v>38</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -6669,19 +6753,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -6698,13 +6782,13 @@
         <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>10</v>
@@ -6716,19 +6800,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -6745,13 +6829,13 @@
         <v>38</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
@@ -6763,19 +6847,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -6792,13 +6876,13 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>45</v>
@@ -6810,19 +6894,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -6839,13 +6923,13 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>45</v>
@@ -6857,19 +6941,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -6886,13 +6970,13 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>45</v>
@@ -6904,19 +6988,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -6933,13 +7017,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>45</v>
@@ -6951,19 +7035,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -6980,13 +7064,13 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>45</v>
@@ -6998,19 +7082,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -7027,13 +7111,13 @@
         <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -7045,19 +7129,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -7074,13 +7158,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>45</v>
@@ -7092,19 +7176,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -7121,13 +7205,13 @@
         <v>38</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>45</v>
@@ -7139,19 +7223,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -7168,13 +7252,13 @@
         <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>35</v>
@@ -7186,19 +7270,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -7215,13 +7299,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>56</v>
@@ -7233,19 +7317,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -7262,13 +7346,13 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>51</v>
@@ -7280,19 +7364,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -7309,13 +7393,13 @@
         <v>38</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>56</v>
@@ -7327,19 +7411,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -7356,13 +7440,13 @@
         <v>38</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>60</v>
@@ -7374,19 +7458,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -7403,13 +7487,13 @@
         <v>38</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -7421,19 +7505,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -7450,13 +7534,13 @@
         <v>38</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>10</v>
@@ -7468,19 +7552,19 @@
         <v>8</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -7497,37 +7581,37 @@
         <v>38</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M51" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="N51" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -7544,13 +7628,13 @@
         <v>38</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -7562,19 +7646,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -7591,13 +7675,13 @@
         <v>38</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>10</v>
@@ -7609,19 +7693,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -7638,13 +7722,13 @@
         <v>38</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -7656,19 +7740,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -7685,13 +7769,13 @@
         <v>38</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>10</v>
@@ -7703,19 +7787,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -7732,13 +7816,13 @@
         <v>38</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>10</v>
@@ -7750,19 +7834,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -7770,7 +7854,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -7779,16 +7863,16 @@
         <v>38</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -7797,19 +7881,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -7817,25 +7901,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -7844,19 +7928,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -7864,7 +7948,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>37</v>
@@ -7873,13 +7957,13 @@
         <v>38</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>10</v>
@@ -7891,19 +7975,19 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -7911,7 +7995,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>37</v>
@@ -7920,13 +8004,13 @@
         <v>38</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>10</v>
@@ -7938,19 +8022,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -7958,7 +8042,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>37</v>
@@ -7967,13 +8051,13 @@
         <v>38</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>10</v>
@@ -7985,19 +8069,19 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>
@@ -8005,7 +8089,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>37</v>
@@ -8014,39 +8098,86 @@
         <v>38</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>177</v>
-      </c>
       <c r="N62" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8107,12 +8238,13 @@
     <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
     <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
     <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
+    <hyperlink ref="A57" display="F1QueryIntegrationTest-1.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -88,9 +88,6 @@
     <t>2016-05-31 03:09:52</t>
   </si>
   <si>
-    <t>2016-05-26 05:54:32</t>
-  </si>
-  <si>
     <t>AbsoluteUrl.md</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
     <t>mobile_engagement_icon.png</t>
   </si>
   <si>
+    <t>2016-06-16 02:11:44</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -361,217 +361,217 @@
     <t>2016-05-31 03:09:49</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl</t>
+  </si>
+  <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\reference</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>openpublishing\test\restapi</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
+  </si>
+  <si>
     <t>openpublishing\test</t>
   </si>
   <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-26 14:53:16</t>
+  </si>
+  <si>
+    <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\index.md</t>
+  </si>
+  <si>
+    <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
+  </si>
+  <si>
+    <t>532748fbca6599349f0655e85e79d2103156bd9b.jpg</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
+  </si>
+  <si>
+    <t>7c634bd01edf790ef91ded6d44abee709be27adc.jpg</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
+  </si>
+  <si>
+    <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-12 07:00:41</t>
+  </si>
+  <si>
+    <t>d8f60d16a863b25a5f10a18bc44a0c76614d4bd9.png</t>
+  </si>
+  <si>
+    <t>2016-06-12 02:31:46</t>
+  </si>
+  <si>
+    <t>openpublishing\test\abtesting\users-manual-content.md</t>
+  </si>
+  <si>
+    <t>7a5f1d3027f5c404b1d0b5f7e5a13859c98f7144.png</t>
+  </si>
+  <si>
+    <t>ed6e256aa0a4afebf3aa254f4b8555ed3aa96e73.png</t>
+  </si>
+  <si>
+    <t>b08419de5c61576d8cba079b263d09c14176abf1.png</t>
+  </si>
+  <si>
+    <t>e0a2cfb0f44f0ca1730d147d6ce0c7bbf12677c8.png</t>
+  </si>
+  <si>
+    <t>3ef8bdc8c711e0d812939e0839510959e135cbf2.png</t>
+  </si>
+  <si>
+    <t>2016-05-27 07:53:03</t>
+  </si>
+  <si>
+    <t>2e32dcb5e35020dafe50b8524c2faa1f98987d27.png</t>
+  </si>
+  <si>
+    <t>fdefdf4e0c5a990e26aa3bfa0feb5e9b770eed1e.png</t>
+  </si>
+  <si>
+    <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
+  </si>
+  <si>
+    <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
+  </si>
+  <si>
+    <t>2016-05-26 09:52:21</t>
+  </si>
+  <si>
+    <t>6b9ff10a197ad5bb1849ccd5eba49a57e7dd20a0.png</t>
+  </si>
+  <si>
+    <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
+  </si>
+  <si>
+    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-12 06:30:26</t>
+  </si>
+  <si>
+    <t>openpublishing\test\conceptual\Image</t>
+  </si>
+  <si>
+    <t>377436ada10ce7d4412b6b256396ea85ad93c5af.JPG</t>
+  </si>
+  <si>
+    <t>openpublishing\test\conceptual\large.md</t>
+  </si>
+  <si>
+    <t>28b811e014fbf38741d81c7418c6bb70ead5df74.jpg</t>
+  </si>
+  <si>
+    <t>28bff0237cf9625b464859bd7f3dc309779c7fcb.JPG</t>
+  </si>
+  <si>
+    <t>5381c4c0d584f8697c8053ef5c9ee7b1ab576be3.JPG</t>
+  </si>
+  <si>
+    <t>b79a81b193f258cfee46d1a6478d89e46c7eecdc.JPG</t>
+  </si>
+  <si>
+    <t>bb82c0e8ef39951a2f35466d9912fe622fdac06e.png</t>
+  </si>
+  <si>
+    <t>ce4a21e892357049d70b5ff1aa708547ca715b17.JPG</t>
+  </si>
+  <si>
+    <t>dddd652fb096923a6ac044e9d8c151dc1af2982f.png</t>
+  </si>
+  <si>
+    <t>openpublishing\test\f1query</t>
+  </si>
+  <si>
+    <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-15 10:12:11</t>
+  </si>
+  <si>
+    <t>index.87419c3db469fda983e0d21da78034030aab1efe.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-15 05:40:40</t>
+  </si>
+  <si>
+    <t>openpublishing\test\hubpage\Image</t>
+  </si>
+  <si>
+    <t>887febf591b5b91a952a863e8d17e71316b8932b.png</t>
+  </si>
+  <si>
+    <t>openpublishing\test\hubpage\index.md</t>
+  </si>
+  <si>
+    <t>e095fb4702c92b961abdb5889f6fa915b53089f3.png</t>
+  </si>
+  <si>
+    <t>4801d4b24f8c66abc1da68e075962c5cc820f930.png</t>
+  </si>
+  <si>
+    <t>0f669e5642999152c9bdeb33b2306a43714cab79.png</t>
+  </si>
+  <si>
+    <t>b241a9a18fa3ab470534603d032fa7cf8ff0f066.png</t>
+  </si>
+  <si>
     <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-05-26 05:54:30</t>
-  </si>
-  <si>
-    <t>openpublishing\test\redirectUrl</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.de-de.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.de-de.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\reference</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>openpublishing\test\restapi</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-05-26 14:53:16</t>
-  </si>
-  <si>
-    <t>9f5f9e8e98a690691aa9904ed29a2a010c1bf4e5.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\index.md</t>
-  </si>
-  <si>
-    <t>b73b8ccd489b2326f1b0c47d30be910c5c4788a7.png</t>
-  </si>
-  <si>
-    <t>532748fbca6599349f0655e85e79d2103156bd9b.jpg</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
-  </si>
-  <si>
-    <t>7c634bd01edf790ef91ded6d44abee709be27adc.jpg</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\index.md,openpublishing\test\abtesting\single-topic.md</t>
-  </si>
-  <si>
-    <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-06-12 07:00:41</t>
-  </si>
-  <si>
-    <t>d8f60d16a863b25a5f10a18bc44a0c76614d4bd9.png</t>
-  </si>
-  <si>
-    <t>2016-06-12 02:31:46</t>
-  </si>
-  <si>
-    <t>openpublishing\test\abtesting\users-manual-content.md</t>
-  </si>
-  <si>
-    <t>7a5f1d3027f5c404b1d0b5f7e5a13859c98f7144.png</t>
-  </si>
-  <si>
-    <t>ed6e256aa0a4afebf3aa254f4b8555ed3aa96e73.png</t>
-  </si>
-  <si>
-    <t>b08419de5c61576d8cba079b263d09c14176abf1.png</t>
-  </si>
-  <si>
-    <t>e0a2cfb0f44f0ca1730d147d6ce0c7bbf12677c8.png</t>
-  </si>
-  <si>
-    <t>3ef8bdc8c711e0d812939e0839510959e135cbf2.png</t>
-  </si>
-  <si>
-    <t>2016-05-27 07:53:03</t>
-  </si>
-  <si>
-    <t>2e32dcb5e35020dafe50b8524c2faa1f98987d27.png</t>
-  </si>
-  <si>
-    <t>fdefdf4e0c5a990e26aa3bfa0feb5e9b770eed1e.png</t>
-  </si>
-  <si>
-    <t>683891ac1ac0ad3ef4a7076b18279b98c77a3f3f.png</t>
-  </si>
-  <si>
-    <t>9880407fcee1bdacd4b99a78656f846b39beb4ce.png</t>
-  </si>
-  <si>
-    <t>2016-05-26 09:52:21</t>
-  </si>
-  <si>
-    <t>6b9ff10a197ad5bb1849ccd5eba49a57e7dd20a0.png</t>
-  </si>
-  <si>
-    <t>807e1fd2ee56ea6d3cb6175a427b44b471458652.png</t>
-  </si>
-  <si>
-    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-06-12 06:30:26</t>
-  </si>
-  <si>
-    <t>openpublishing\test\conceptual\Image</t>
-  </si>
-  <si>
-    <t>377436ada10ce7d4412b6b256396ea85ad93c5af.JPG</t>
-  </si>
-  <si>
-    <t>openpublishing\test\conceptual\large.md</t>
-  </si>
-  <si>
-    <t>28b811e014fbf38741d81c7418c6bb70ead5df74.jpg</t>
-  </si>
-  <si>
-    <t>28bff0237cf9625b464859bd7f3dc309779c7fcb.JPG</t>
-  </si>
-  <si>
-    <t>5381c4c0d584f8697c8053ef5c9ee7b1ab576be3.JPG</t>
-  </si>
-  <si>
-    <t>b79a81b193f258cfee46d1a6478d89e46c7eecdc.JPG</t>
-  </si>
-  <si>
-    <t>bb82c0e8ef39951a2f35466d9912fe622fdac06e.png</t>
-  </si>
-  <si>
-    <t>ce4a21e892357049d70b5ff1aa708547ca715b17.JPG</t>
-  </si>
-  <si>
-    <t>dddd652fb096923a6ac044e9d8c151dc1af2982f.png</t>
-  </si>
-  <si>
-    <t>openpublishing\test\f1query</t>
-  </si>
-  <si>
-    <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-06-15 10:12:11</t>
-  </si>
-  <si>
-    <t>index.87419c3db469fda983e0d21da78034030aab1efe.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-06-15 05:40:40</t>
-  </si>
-  <si>
-    <t>openpublishing\test\hubpage\Image</t>
-  </si>
-  <si>
-    <t>887febf591b5b91a952a863e8d17e71316b8932b.png</t>
-  </si>
-  <si>
-    <t>openpublishing\test\hubpage\index.md</t>
-  </si>
-  <si>
-    <t>e095fb4702c92b961abdb5889f6fa915b53089f3.png</t>
-  </si>
-  <si>
-    <t>4801d4b24f8c66abc1da68e075962c5cc820f930.png</t>
-  </si>
-  <si>
-    <t>0f669e5642999152c9bdeb33b2306a43714cab79.png</t>
-  </si>
-  <si>
-    <t>b241a9a18fa3ab470534603d032fa7cf8ff0f066.png</t>
+    <t>2016-06-16 02:11:40</t>
   </si>
   <si>
     <t>control-panel.611c914fc083e64635d4fcb7c78760cde4272425.zh-cn.xlf</t>
@@ -616,61 +616,61 @@
     <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.zh-cn.xlf</t>
   </si>
   <si>
+    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>index.87419c3db469fda983e0d21da78034030aab1efe.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrl.8b3d944bba6453aba07ab868b257ade0656a3747.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>AbsoluteUrlWithAAD.3945bfecc85805ad5d2609e4150a510ddf55f536.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>EmptyRelativeUrl.71865166daff573b6978a9ed4d135ac088a036c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.d3796100377452b5bedb3e374d6fa97c546002ad.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>InvalidAbsoluteUrl.3d35a91ba19b3d44a9c2a81ae471ad307e04c99e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>InvalidRelativeUrl.c80646d86643e3163e939eadf93798e7f6786df1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>RelativePage.7174d65c97ce6e8c2cbe8430fa2c92194291e42f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>RelativeUrl.55b6680466f3af93757bba9640ee05efd816931c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.e9474ea5527f26245e807f6aaf427cb25a81f6e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>contacts-operations.a201e952311565856c026d87189a869cf38f6bc9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>entity-and-complex-type-reference.13ce6f04ba2195bafbf358ad95a6379cf8e662d3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.0e2537923c463f008e00297b3d0c9da0d247c264.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.c470cf695035ba020c763912e8871ba89266b704.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.aff33f4763a521dfe8256a4d8a4caf592c09b34b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.1ccbda7a83b0df0ee5537fdcd6c2395c537bb9e8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>index.87419c3db469fda983e0d21da78034030aab1efe.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1167,7 +1167,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -1367,59 +1367,59 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="C31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1430,16 +1430,16 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="C33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1467,62 +1467,62 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1530,19 +1530,19 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1550,19 +1550,19 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -1570,19 +1570,19 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -1590,39 +1590,39 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1630,19 +1630,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1650,19 +1650,19 @@
         <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -1670,39 +1670,39 @@
         <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -1730,56 +1730,56 @@
         <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1790,16 +1790,16 @@
         <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1810,16 +1810,16 @@
         <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1830,16 +1830,16 @@
         <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1850,16 +1850,16 @@
         <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1890,16 +1890,16 @@
         <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1910,24 +1910,24 @@
         <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -1936,10 +1936,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>71</v>
@@ -1947,22 +1947,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1970,16 +1970,16 @@
         <v>73</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1990,16 +1990,16 @@
         <v>74</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2010,16 +2010,16 @@
         <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,16 +2030,16 @@
         <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,22 +2047,22 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2081,54 +2081,54 @@
     <hyperlink ref="A13" display="small.md" r:id="rId13"/>
     <hyperlink ref="A14" display="ui-components.md" r:id="rId14"/>
     <hyperlink ref="A15" display="index.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="index.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="AbsoluteUrl.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="AbsoluteUrlWithAAD.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="EmptyRelativeUrl.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="index.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="InvalidAbsoluteUrl.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="InvalidRelativeUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="RelativePage.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="RelativeUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="index.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="contacts-operations.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="entity-and-complex-type-reference.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A16" display="AbsoluteUrl.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="AbsoluteUrlWithAAD.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="EmptyRelativeUrl.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="index.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="InvalidAbsoluteUrl.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="InvalidRelativeUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="RelativePage.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="RelativeUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="index.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="contacts-operations.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="entity-and-complex-type-reference.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="TOC.md" r:id="rId28"/>
     <hyperlink ref="A29" display="TOC.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="content-ab-testing-flow.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="global-ab-testing-flow.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="iceberg.experimental.jpg" r:id="rId33"/>
-    <hyperlink ref="A34" display="iceberg.jpg" r:id="rId34"/>
-    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
-    <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Config.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="UM-AB-Portal-Metrics-Result.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="UM-AB-Portal-Metrics.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="UM-Cleanup-Content-Experiment.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="UM-New-Content-Experiment.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="UM-OP-Portal.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="UM-Prerequisite.png" r:id="rId47"/>
-    <hyperlink ref="A48" display="users-manual-content.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="ATA_Center_Configuration.JPG" r:id="rId49"/>
-    <hyperlink ref="A50" display="ATA_Config_GW_Settings.jpg" r:id="rId50"/>
-    <hyperlink ref="A51" display="ATA_config_icon.JPG" r:id="rId51"/>
-    <hyperlink ref="A52" display="ATA_Domain_Connectivity_User.JPG" r:id="rId52"/>
-    <hyperlink ref="A53" display="ATA_Gateway_Configuration.JPG" r:id="rId53"/>
-    <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
-    <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="F1QueryIntegrationTest-1.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
-    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
+    <hyperlink ref="A30" display="content-ab-testing-flow.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="global-ab-testing-flow.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="iceberg.experimental.jpg" r:id="rId32"/>
+    <hyperlink ref="A33" display="iceberg.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="index.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="UM-AB-Portal-Experiment-New.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="UM-AB-Portal-Experiments-Action.png" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiments.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="users-manual-content.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="ATA_Center_Configuration.JPG" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_Config_GW_Settings.jpg" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_config_icon.JPG" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_Domain_Connectivity_User.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_Gateway_Configuration.JPG" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_performance_monitoring_add_counters.png" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATA_VPN_Subnets.JPG" r:id="rId54"/>
+    <hyperlink ref="A55" display="ATAGWDomainController.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="F1QueryIntegrationTest-1.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="index.md" r:id="rId63"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2908,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2925,13 +2925,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>95</v>
@@ -2972,13 +2972,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>95</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -3019,13 +3019,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>95</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -3066,13 +3066,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>95</v>
@@ -3113,13 +3113,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>95</v>
@@ -3160,13 +3160,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>95</v>
@@ -3207,13 +3207,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>95</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -3254,13 +3254,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>95</v>
@@ -3284,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -3301,13 +3301,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>95</v>
@@ -3331,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3348,13 +3348,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>95</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -3395,13 +3395,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>95</v>
@@ -3425,7 +3425,7 @@
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -3442,13 +3442,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>95</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -3489,16 +3489,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
@@ -3545,25 +3545,25 @@
         <v>134</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="M30" s="0" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>98</v>
@@ -3574,13 +3574,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="C31" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>93</v>
@@ -3589,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>95</v>
@@ -3607,10 +3607,10 @@
         <v>8</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>98</v>
@@ -3624,10 +3624,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>93</v>
@@ -3636,7 +3636,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>95</v>
@@ -3654,10 +3654,10 @@
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>98</v>
@@ -3668,13 +3668,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="C33" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>93</v>
@@ -3701,7 +3701,7 @@
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>141</v>
@@ -3715,13 +3715,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>93</v>
@@ -3733,7 +3733,7 @@
         <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3748,10 +3748,10 @@
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>98</v>
@@ -3762,13 +3762,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>93</v>
@@ -3795,10 +3795,10 @@
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>98</v>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>93</v>
@@ -3824,28 +3824,28 @@
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>98</v>
@@ -3859,10 +3859,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>93</v>
@@ -3871,10 +3871,10 @@
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
@@ -3889,10 +3889,10 @@
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>98</v>
@@ -3906,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>93</v>
@@ -3918,10 +3918,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -3936,10 +3936,10 @@
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>98</v>
@@ -3953,10 +3953,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>93</v>
@@ -3965,10 +3965,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -3983,10 +3983,10 @@
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>98</v>
@@ -4000,10 +4000,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>93</v>
@@ -4012,11 +4012,11 @@
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
       </c>
@@ -4030,10 +4030,10 @@
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>98</v>
@@ -4044,13 +4044,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>93</v>
@@ -4062,7 +4062,7 @@
         <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -4077,10 +4077,10 @@
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>98</v>
@@ -4094,10 +4094,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>93</v>
@@ -4106,10 +4106,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -4124,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>98</v>
@@ -4141,10 +4141,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>93</v>
@@ -4153,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4171,10 +4171,10 @@
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>98</v>
@@ -4188,10 +4188,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>93</v>
@@ -4200,28 +4200,28 @@
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="M44" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>98</v>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>93</v>
@@ -4250,7 +4250,7 @@
         <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4265,10 +4265,10 @@
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>98</v>
@@ -4282,10 +4282,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>93</v>
@@ -4294,10 +4294,10 @@
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -4312,10 +4312,10 @@
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>98</v>
@@ -4329,10 +4329,10 @@
         <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>93</v>
@@ -4341,11 +4341,11 @@
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
       </c>
@@ -4359,10 +4359,10 @@
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>98</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4406,10 +4406,10 @@
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>98</v>
@@ -4420,16 +4420,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -4453,10 +4453,10 @@
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>98</v>
@@ -4470,19 +4470,19 @@
         <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>95</v>
@@ -4500,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>98</v>
@@ -4517,19 +4517,19 @@
         <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>95</v>
@@ -4547,10 +4547,10 @@
         <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>98</v>
@@ -4564,19 +4564,19 @@
         <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>95</v>
@@ -4594,10 +4594,10 @@
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>98</v>
@@ -4611,19 +4611,19 @@
         <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>95</v>
@@ -4641,10 +4641,10 @@
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>98</v>
@@ -4658,19 +4658,19 @@
         <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>95</v>
@@ -4688,10 +4688,10 @@
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>98</v>
@@ -4705,19 +4705,19 @@
         <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>95</v>
@@ -4735,10 +4735,10 @@
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>98</v>
@@ -4752,13 +4752,13 @@
         <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
@@ -4767,7 +4767,7 @@
         <v>173</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4782,13 +4782,13 @@
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -4835,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4843,25 +4843,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4876,10 +4876,10 @@
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>98</v>
@@ -4893,13 +4893,13 @@
         <v>73</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
@@ -4923,10 +4923,10 @@
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>98</v>
@@ -4940,19 +4940,19 @@
         <v>74</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>95</v>
@@ -4970,10 +4970,10 @@
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>98</v>
@@ -4987,19 +4987,19 @@
         <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -5017,10 +5017,10 @@
         <v>8</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N61" s="0" t="s">
         <v>98</v>
@@ -5034,19 +5034,19 @@
         <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>95</v>
@@ -5064,10 +5064,10 @@
         <v>8</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>98</v>
@@ -5078,26 +5078,26 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="H63" s="0" t="s">
         <v>8</v>
       </c>
@@ -5111,10 +5111,10 @@
         <v>8</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>98</v>
@@ -5139,54 +5139,54 @@
     <hyperlink ref="A13" display="small.md" r:id="rId13"/>
     <hyperlink ref="A14" display="ui-components.md" r:id="rId14"/>
     <hyperlink ref="A15" display="index.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="index.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="AbsoluteUrl.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="AbsoluteUrlWithAAD.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="EmptyRelativeUrl.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="index.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="InvalidAbsoluteUrl.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="InvalidRelativeUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="RelativePage.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="RelativeUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="index.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="contacts-operations.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="entity-and-complex-type-reference.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A16" display="AbsoluteUrl.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="AbsoluteUrlWithAAD.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="EmptyRelativeUrl.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="index.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="InvalidAbsoluteUrl.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="InvalidRelativeUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="RelativePage.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="RelativeUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="index.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="contacts-operations.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="entity-and-complex-type-reference.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="TOC.md" r:id="rId28"/>
     <hyperlink ref="A29" display="TOC.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="content-ab-testing-flow.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="global-ab-testing-flow.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="iceberg.experimental.jpg" r:id="rId33"/>
-    <hyperlink ref="A34" display="iceberg.jpg" r:id="rId34"/>
-    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
-    <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Config.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="UM-AB-Portal-Metrics-Result.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="UM-AB-Portal-Metrics.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="UM-Cleanup-Content-Experiment.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="UM-New-Content-Experiment.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="UM-OP-Portal.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="UM-Prerequisite.png" r:id="rId47"/>
-    <hyperlink ref="A48" display="users-manual-content.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="ATA_Center_Configuration.JPG" r:id="rId49"/>
-    <hyperlink ref="A50" display="ATA_Config_GW_Settings.jpg" r:id="rId50"/>
-    <hyperlink ref="A51" display="ATA_config_icon.JPG" r:id="rId51"/>
-    <hyperlink ref="A52" display="ATA_Domain_Connectivity_User.JPG" r:id="rId52"/>
-    <hyperlink ref="A53" display="ATA_Gateway_Configuration.JPG" r:id="rId53"/>
-    <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
-    <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="F1QueryIntegrationTest-1.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
-    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
+    <hyperlink ref="A30" display="content-ab-testing-flow.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="global-ab-testing-flow.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="iceberg.experimental.jpg" r:id="rId32"/>
+    <hyperlink ref="A33" display="iceberg.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="index.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="UM-AB-Portal-Experiment-New.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="UM-AB-Portal-Experiments-Action.png" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiments.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="users-manual-content.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="ATA_Center_Configuration.JPG" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_Config_GW_Settings.jpg" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_config_icon.JPG" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_Domain_Connectivity_User.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_Gateway_Configuration.JPG" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_performance_monitoring_add_counters.png" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATA_VPN_Subnets.JPG" r:id="rId54"/>
+    <hyperlink ref="A55" display="ATAGWDomainController.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="F1QueryIntegrationTest-1.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="index.md" r:id="rId63"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
@@ -5945,7 +5945,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -5966,7 +5966,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5983,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
@@ -6030,7 +6030,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
@@ -6077,7 +6077,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -6124,7 +6124,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
@@ -6171,7 +6171,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
@@ -6218,7 +6218,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
@@ -6265,7 +6265,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
@@ -6312,7 +6312,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
@@ -6342,7 +6342,7 @@
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
@@ -6359,7 +6359,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -6389,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6406,7 +6406,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
@@ -6453,7 +6453,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
@@ -6483,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -6500,7 +6500,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
@@ -6547,7 +6547,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
@@ -6556,7 +6556,7 @@
         <v>213</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -6585,25 +6585,25 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -6618,10 +6618,10 @@
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>98</v>
@@ -6632,13 +6632,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="C31" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>93</v>
@@ -6647,28 +6647,28 @@
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>98</v>
@@ -6682,10 +6682,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>93</v>
@@ -6694,28 +6694,28 @@
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>98</v>
@@ -6726,13 +6726,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="C33" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>93</v>
@@ -6759,7 +6759,7 @@
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>141</v>
@@ -6773,13 +6773,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>93</v>
@@ -6788,10 +6788,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -6806,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>98</v>
@@ -6820,13 +6820,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>93</v>
@@ -6835,10 +6835,10 @@
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -6853,10 +6853,10 @@
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>98</v>
@@ -6867,13 +6867,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>93</v>
@@ -6882,28 +6882,28 @@
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>98</v>
@@ -6917,10 +6917,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>93</v>
@@ -6929,10 +6929,10 @@
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>8</v>
@@ -6947,10 +6947,10 @@
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>98</v>
@@ -6964,10 +6964,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>93</v>
@@ -6976,10 +6976,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -6994,10 +6994,10 @@
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>98</v>
@@ -7011,10 +7011,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>93</v>
@@ -7023,10 +7023,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -7041,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>98</v>
@@ -7058,10 +7058,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>93</v>
@@ -7070,10 +7070,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -7088,10 +7088,10 @@
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>98</v>
@@ -7102,13 +7102,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>93</v>
@@ -7120,7 +7120,7 @@
         <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -7135,10 +7135,10 @@
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>98</v>
@@ -7152,10 +7152,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>93</v>
@@ -7164,10 +7164,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -7182,10 +7182,10 @@
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>98</v>
@@ -7199,10 +7199,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>93</v>
@@ -7211,10 +7211,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -7229,10 +7229,10 @@
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>98</v>
@@ -7246,10 +7246,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>93</v>
@@ -7258,10 +7258,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -7276,10 +7276,10 @@
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>98</v>
@@ -7290,13 +7290,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>93</v>
@@ -7308,7 +7308,7 @@
         <v>158</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -7323,10 +7323,10 @@
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>98</v>
@@ -7340,10 +7340,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>93</v>
@@ -7352,10 +7352,10 @@
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
@@ -7370,10 +7370,10 @@
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>98</v>
@@ -7387,10 +7387,10 @@
         <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>93</v>
@@ -7399,10 +7399,10 @@
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -7417,10 +7417,10 @@
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>98</v>
@@ -7431,25 +7431,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -7464,10 +7464,10 @@
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>98</v>
@@ -7478,16 +7478,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -7511,10 +7511,10 @@
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>98</v>
@@ -7528,40 +7528,40 @@
         <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>98</v>
@@ -7575,40 +7575,40 @@
         <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M51" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>98</v>
@@ -7622,40 +7622,40 @@
         <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>98</v>
@@ -7669,40 +7669,40 @@
         <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M53" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>98</v>
@@ -7716,40 +7716,40 @@
         <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M54" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>98</v>
@@ -7763,40 +7763,40 @@
         <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M55" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>98</v>
@@ -7810,22 +7810,22 @@
         <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -7840,13 +7840,13 @@
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -7854,16 +7854,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -7901,25 +7901,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -7934,10 +7934,10 @@
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>98</v>
@@ -7951,13 +7951,13 @@
         <v>73</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
@@ -7981,10 +7981,10 @@
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>98</v>
@@ -7998,40 +7998,40 @@
         <v>74</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M60" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>98</v>
@@ -8045,40 +8045,40 @@
         <v>75</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="N61" s="0" t="s">
         <v>98</v>
@@ -8092,40 +8092,40 @@
         <v>76</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>98</v>
@@ -8136,26 +8136,26 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H63" s="0" t="s">
         <v>8</v>
       </c>
@@ -8169,10 +8169,10 @@
         <v>8</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>98</v>
@@ -8197,54 +8197,54 @@
     <hyperlink ref="A13" display="small.md" r:id="rId13"/>
     <hyperlink ref="A14" display="ui-components.md" r:id="rId14"/>
     <hyperlink ref="A15" display="index.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="index.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="AbsoluteUrl.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="AbsoluteUrlWithAAD.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="EmptyRelativeUrl.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="index.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="InvalidAbsoluteUrl.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="InvalidRelativeUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="RelativePage.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="RelativeUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="index.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="contacts-operations.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="entity-and-complex-type-reference.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
+    <hyperlink ref="A16" display="AbsoluteUrl.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="AbsoluteUrlWithAAD.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="EmptyRelativeUrl.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="index.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="InvalidAbsoluteUrl.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="InvalidRelativeUrl.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="RelativePage.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="RelativeUrl.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="index.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="contacts-operations.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="entity-and-complex-type-reference.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="index.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="TOC.md" r:id="rId28"/>
     <hyperlink ref="A29" display="TOC.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="TOC.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="content-ab-testing-flow.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="global-ab-testing-flow.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="iceberg.experimental.jpg" r:id="rId33"/>
-    <hyperlink ref="A34" display="iceberg.jpg" r:id="rId34"/>
-    <hyperlink ref="A35" display="index.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="UM-AB-Portal-Experiment-New.png" r:id="rId36"/>
-    <hyperlink ref="A37" display="UM-AB-Portal-Experiments-Action.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="UM-AB-Portal-Experiments.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Config.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="UM-AB-Portal-Metrics-Result.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="UM-AB-Portal-Metrics.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="UM-Cleanup-Content-Experiment.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="UM-New-Content-Experiment.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="UM-OP-Portal.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="UM-Prerequisite.png" r:id="rId47"/>
-    <hyperlink ref="A48" display="users-manual-content.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="ATA_Center_Configuration.JPG" r:id="rId49"/>
-    <hyperlink ref="A50" display="ATA_Config_GW_Settings.jpg" r:id="rId50"/>
-    <hyperlink ref="A51" display="ATA_config_icon.JPG" r:id="rId51"/>
-    <hyperlink ref="A52" display="ATA_Domain_Connectivity_User.JPG" r:id="rId52"/>
-    <hyperlink ref="A53" display="ATA_Gateway_Configuration.JPG" r:id="rId53"/>
-    <hyperlink ref="A54" display="ATA_performance_monitoring_add_counters.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="ATA_VPN_Subnets.JPG" r:id="rId55"/>
-    <hyperlink ref="A56" display="ATAGWDomainController.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="F1QueryIntegrationTest-1.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
-    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
+    <hyperlink ref="A30" display="content-ab-testing-flow.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="global-ab-testing-flow.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="iceberg.experimental.jpg" r:id="rId32"/>
+    <hyperlink ref="A33" display="iceberg.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="index.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="UM-AB-Portal-Experiment-New.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="UM-AB-Portal-Experiments-Action.png" r:id="rId36"/>
+    <hyperlink ref="A37" display="UM-AB-Portal-Experiments.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="UM-AB-Portal-Metric-Report-Config.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="UM-AB-Portal-Metric-Report-Result.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="UM-AB-Portal-Metrics-Config.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="UM-AB-Portal-Metrics-Result.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="UM-AB-Portal-Metrics.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="UM-Cleanup-Content-Experiment.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="UM-New-Content-Experiment.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="UM-OP-Portal.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="UM-Prerequisite.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="users-manual-content.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="ATA_Center_Configuration.JPG" r:id="rId48"/>
+    <hyperlink ref="A49" display="ATA_Config_GW_Settings.jpg" r:id="rId49"/>
+    <hyperlink ref="A50" display="ATA_config_icon.JPG" r:id="rId50"/>
+    <hyperlink ref="A51" display="ATA_Domain_Connectivity_User.JPG" r:id="rId51"/>
+    <hyperlink ref="A52" display="ATA_Gateway_Configuration.JPG" r:id="rId52"/>
+    <hyperlink ref="A53" display="ATA_performance_monitoring_add_counters.png" r:id="rId53"/>
+    <hyperlink ref="A54" display="ATA_VPN_Subnets.JPG" r:id="rId54"/>
+    <hyperlink ref="A55" display="ATAGWDomainController.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="F1QueryIntegrationTest-1.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
+    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="index.md" r:id="rId63"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -226,7 +226,7 @@
     <t>F1QueryIntegrationTest-1.md</t>
   </si>
   <si>
-    <t>2016-06-15 10:12:19</t>
+    <t>2016-06-16 03:42:19</t>
   </si>
   <si>
     <t>2016-06-15 05:40:43</t>
@@ -538,7 +538,7 @@
     <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-06-15 10:12:11</t>
+    <t>2016-06-16 03:42:16</t>
   </si>
   <si>
     <t>index.87419c3db469fda983e0d21da78034030aab1efe.de-de.xlf</t>

--- a/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>File Name</t>
   </si>
@@ -229,6 +229,12 @@
     <t>2016-06-16 03:42:19</t>
   </si>
   <si>
+    <t>F1QueryIntegrationTest-2.md</t>
+  </si>
+  <si>
+    <t>2016-06-16 07:16:08</t>
+  </si>
+  <si>
     <t>2016-06-15 05:40:43</t>
   </si>
   <si>
@@ -541,6 +547,12 @@
     <t>2016-06-16 03:42:16</t>
   </si>
   <si>
+    <t>F1QueryIntegrationTest-2.9d5b370291294db723a8f0b82b12f8b3544cc0e6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-16 07:16:00</t>
+  </si>
+  <si>
     <t>index.87419c3db469fda983e0d21da78034030aab1efe.de-de.xlf</t>
   </si>
   <si>
@@ -665,6 +677,9 @@
   </si>
   <si>
     <t>F1QueryIntegrationTest-1.a955706bea62d947e29b3bc2ef3e7c8d75c7b462.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>F1QueryIntegrationTest-2.9d5b370291294db723a8f0b82b12f8b3544cc0e6.zh-cn.xlf</t>
   </si>
   <si>
     <t>index.87419c3db469fda983e0d21da78034030aab1efe.zh-cn.xlf</t>
@@ -727,8 +742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O63" headerRowCount="1">
-  <autoFilter ref="A1:O63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:O64" headerRowCount="1">
+  <autoFilter ref="A1:O64"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -751,8 +766,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O63" headerRowCount="1">
-  <autoFilter ref="A1:O63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:O64" headerRowCount="1">
+  <autoFilter ref="A1:O64"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -775,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F63" headerRowCount="1">
-  <autoFilter ref="A1:F63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F64" headerRowCount="1">
+  <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -791,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1942,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -1942,15 +1957,15 @@
         <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>8</v>
@@ -1962,12 +1977,12 @@
         <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>36</v>
@@ -1987,7 +2002,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>36</v>
@@ -2007,7 +2022,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>36</v>
@@ -2027,7 +2042,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>36</v>
@@ -2047,22 +2062,42 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>77</v>
+      <c r="B64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2122,13 +2157,14 @@
     <hyperlink ref="A54" display="ATA_VPN_Subnets.JPG" r:id="rId54"/>
     <hyperlink ref="A55" display="ATAGWDomainController.png" r:id="rId55"/>
     <hyperlink ref="A56" display="F1QueryIntegrationTest-1.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
-    <hyperlink ref="A63" display="index.md" r:id="rId63"/>
+    <hyperlink ref="A57" display="F1QueryIntegrationTest-2.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
+    <hyperlink ref="A64" display="index.md" r:id="rId64"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2139,7 +2175,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2164,49 +2200,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -2220,16 +2256,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -2238,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -2267,16 +2303,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -2285,19 +2321,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -2314,16 +2350,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -2332,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -2361,16 +2397,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -2379,19 +2415,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -2408,16 +2444,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -2426,19 +2462,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -2455,16 +2491,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -2473,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -2502,16 +2538,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -2520,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -2549,16 +2585,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -2567,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -2596,16 +2632,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -2614,19 +2650,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -2643,16 +2679,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -2661,19 +2697,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -2690,16 +2726,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -2708,19 +2744,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -2737,16 +2773,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -2755,19 +2791,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2784,16 +2820,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -2802,19 +2838,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2831,16 +2867,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -2849,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2878,16 +2914,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -2896,19 +2932,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -2925,16 +2961,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -2943,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -2972,16 +3008,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>8</v>
@@ -2990,19 +3026,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -3019,16 +3055,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>8</v>
@@ -3037,19 +3073,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -3066,16 +3102,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -3084,19 +3120,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -3113,16 +3149,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -3131,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -3160,16 +3196,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -3178,19 +3214,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -3207,16 +3243,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -3225,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -3254,16 +3290,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -3272,19 +3308,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -3301,16 +3337,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -3319,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -3348,16 +3384,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -3366,19 +3402,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -3395,16 +3431,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -3413,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -3442,16 +3478,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -3460,19 +3496,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -3489,16 +3525,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -3507,19 +3543,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -3536,16 +3572,16 @@
         <v>37</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -3554,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -3583,37 +3619,37 @@
         <v>37</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="M31" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -3630,16 +3666,16 @@
         <v>37</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -3648,19 +3684,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -3677,16 +3713,16 @@
         <v>37</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -3695,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -3724,16 +3760,16 @@
         <v>37</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -3742,19 +3778,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -3771,16 +3807,16 @@
         <v>37</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>8</v>
@@ -3789,19 +3825,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -3818,17 +3854,17 @@
         <v>37</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="H36" s="0" t="s">
         <v>8</v>
       </c>
@@ -3836,19 +3872,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -3865,37 +3901,37 @@
         <v>37</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M37" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="N37" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -3912,16 +3948,16 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>8</v>
@@ -3930,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -3959,16 +3995,16 @@
         <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>8</v>
@@ -3977,19 +4013,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -4006,16 +4042,16 @@
         <v>37</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>8</v>
@@ -4024,19 +4060,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -4053,16 +4089,16 @@
         <v>37</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>8</v>
@@ -4071,19 +4107,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -4100,16 +4136,16 @@
         <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>8</v>
@@ -4118,19 +4154,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -4147,16 +4183,16 @@
         <v>37</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>8</v>
@@ -4165,19 +4201,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -4194,16 +4230,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>8</v>
@@ -4212,19 +4248,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -4241,16 +4277,16 @@
         <v>37</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>8</v>
@@ -4259,19 +4295,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -4288,17 +4324,17 @@
         <v>37</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H46" s="0" t="s">
         <v>8</v>
       </c>
@@ -4306,19 +4342,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -4335,16 +4371,16 @@
         <v>37</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>8</v>
@@ -4353,19 +4389,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -4382,16 +4418,16 @@
         <v>37</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>8</v>
@@ -4400,19 +4436,19 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>8</v>
@@ -4429,16 +4465,16 @@
         <v>37</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>8</v>
@@ -4447,19 +4483,19 @@
         <v>8</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>8</v>
@@ -4476,37 +4512,37 @@
         <v>37</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M50" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="N50" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>8</v>
@@ -4523,16 +4559,16 @@
         <v>37</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>8</v>
@@ -4541,19 +4577,19 @@
         <v>8</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>8</v>
@@ -4570,16 +4606,16 @@
         <v>37</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>8</v>
@@ -4588,19 +4624,19 @@
         <v>8</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>8</v>
@@ -4617,16 +4653,16 @@
         <v>37</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>8</v>
@@ -4635,19 +4671,19 @@
         <v>8</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>8</v>
@@ -4664,16 +4700,16 @@
         <v>37</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>8</v>
@@ -4682,19 +4718,19 @@
         <v>8</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>8</v>
@@ -4711,16 +4747,16 @@
         <v>37</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>8</v>
@@ -4729,19 +4765,19 @@
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>8</v>
@@ -4758,16 +4794,16 @@
         <v>37</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>8</v>
@@ -4776,19 +4812,19 @@
         <v>8</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>8</v>
@@ -4796,7 +4832,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -4805,16 +4841,16 @@
         <v>37</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>8</v>
@@ -4823,19 +4859,19 @@
         <v>8</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>8</v>
@@ -4843,25 +4879,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>8</v>
@@ -4870,19 +4906,19 @@
         <v>8</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>8</v>
@@ -4890,7 +4926,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>36</v>
@@ -4899,16 +4935,16 @@
         <v>37</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>8</v>
@@ -4917,19 +4953,19 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>8</v>
@@ -4937,7 +4973,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>36</v>
@@ -4946,16 +4982,16 @@
         <v>37</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>8</v>
@@ -4964,19 +5000,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>8</v>
@@ -4984,7 +5020,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>36</v>
@@ -4993,16 +5029,16 @@
         <v>37</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>8</v>
@@ -5011,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>8</v>
@@ -5031,7 +5067,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>36</v>
@@ -5040,37 +5076,37 @@
         <v>37</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="N62" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>8</v>
@@ -5078,48 +5114,95 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="O63" s="0" t="s">
+      <c r="B64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="O64" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5180,13 +5263,14 @@
     <hyperlink ref="A54" display="ATA_VPN_Subnets.JPG" r:id="rId54"/>
     <hyperlink ref="A55" display="ATAGWDomainController.png" r:id="rId55"/>
     <hyperlink ref="A56" display="F1QueryIntegrationTest-1.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="index.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="azure_active_directory_icon.png" r:id="rId58"/>
-    <hyperlink ref="A59" display="conditional access_exchange_icon.png" r:id="rId59"/>
-    <hyperlink ref="A60" display="intune_byod_icon.png" r:id="rId60"/>
-    <hyperlink ref="A61" display="mobile_devices_icon.png" r:id="rId61"/>
-    <hyperlink ref="A62" display="mobile_engagement_icon.png" r:id="rId62"/>
-    <hyperlink ref="A63" display="index.md" r:id="rId63"/>
+    <hyperlink ref="A57" display="F1QueryIntegrationTest-2.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="index.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="azure_active_directory_icon.png" r:id="rId59"/>
+    <hyperlink ref="A60" display="conditional access_exchange_icon.png" r:id="rId60"/>
+    <hyperlink ref="A61" display="intune_byod_icon.png" r:id="rId61"/>
+    <hyperlink ref="A62" display="mobile_devices_icon.png" r:id="rId62"/>
+    <hyperlink ref="A63" display="mobile_engagement_icon.png" r:id="rId63"/>
+    <hyperlink ref="A64" display="index.md" r:id="rId64"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5197,7 +5281,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5222,49 +5306,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -5278,13 +5362,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -5296,19 +5380,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -5325,13 +5409,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -5343,19 +5427,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -5372,13 +5456,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5390,19 +5474,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -5419,13 +5503,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -5437,19 +5521,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -5466,13 +5550,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -5484,19 +5568,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -5513,13 +5597,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -5531,19 +5615,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -5560,13 +5644,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -5578,19 +5662,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -5607,13 +5691,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -5625,19 +5709,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -5654,13 +5738,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -5672,19 +5756,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -5701,13 +5785,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -5719,19 +5803,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -5748,13 +5832,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -5766,19 +5850,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -5795,13 +5879,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -5813,19 +5897,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -5842,13 +5926,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -5860,19 +5944,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -5889,13 +5973,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>23</v>
@@ -5907,19 +5991,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -5936,13 +6020,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>10</v>
@@ -5954,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>8</v>
@@ -5983,13 +6067,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
@@ -6001,19 +6085,19 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>8</v>
@@ -6030,13 +6114,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -6048,19 +6132,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>8</v>
@@ -6077,13 +6161,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -6095,19 +6179,19 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>8</v>
@@ -6124,13 +6208,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -6142,19 +6226,19 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>8</v>
@@ -6171,13 +6255,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -6189,19 +6273,19 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>8</v>
@@ -6218,13 +6302,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -6236,19 +6320,19 @@
         <v>8</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>8</v>
@@ -6265,13 +6349,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -6283,19 +6367,19 @@
         <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>8</v>
@@ -6312,13 +6396,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
@@ -6330,19 +6414,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>8</v>
@@ -6359,13 +6443,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
@@ -6377,19 +6461,19 @@
         <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>8</v>
@@ -6406,13 +6490,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -6424,19 +6508,19 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>8</v>
@@ -6453,13 +6537,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -6471,19 +6555,19 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>8</v>
@@ -6500,13 +6584,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>10</v>
@@ -6518,19 +6602,19 @@
         <v>8</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>8</v>
@@ -6547,13 +6631,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>34</v>
@@ -6565,19 +6649,19 @@
         <v>8</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>8</v>
@@ -6594,13 +6678,13 @@
         <v>37</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>10</v>
@@ -6612,19 +6696,19 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>8</v>
@@ -6641,37 +6725,37 @@
         <v>37</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="M31" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>8</v>
@@ -6688,13 +6772,13 @@
         <v>37</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>10</v>
@@ -6706,19 +6790,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>8</v>
@@ -6735,13 +6819,13 @@
         <v>37</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -6753,19 +6837,19 @@
         <v>8</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>8</v>
@@ -6782,13 +6866,13 @@
         <v>37</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>42</v>
@@ -6800,19 +6884,19 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>8</v>
@@ -6829,13 +6913,13 @@
         <v>37</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>44</v>
@@ -6847,19 +6931,19 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>8</v>
@@ -6876,13 +6960,13 @@
         <v>37</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>44</v>
@@ -6894,19 +6978,19 @@
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>8</v>
@@ -6923,13 +7007,13 @@
         <v>37</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>44</v>
@@ -6941,19 +7025,19 @@
         <v>8</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>8</v>
@@ -6970,13 +7054,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>44</v>
@@ -6988,19 +7072,19 @@
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>8</v>
@@ -7017,13 +7101,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>44</v>
@@ -7035,19 +7119,19 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>8</v>
@@ -7064,13 +7148,13 @@
         <v>37</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>50</v>
@@ -7082,19 +7166,19 @@
         <v>8</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>8</v>
@@ -7111,13 +7195,13 @@
         <v>37</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>44</v>
@@ -7129,19 +7213,19 @@
         <v>8</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>8</v>
@@ -7158,13 +7242,13 @@
         <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>44</v>
@@ -7176,19 +7260,19 @@
         <v>8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>8</v>
@@ -7205,13 +7289,13 @@
         <v>37</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>34</v>
@@ -7223,19 +7307,19 @@
         <v>8</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>8</v>
@@ -7252,13 +7336,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>55</v>
@@ -7270,19 +7354,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>8</v>
@@ -7299,13 +7383,13 @@
         <v>37</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>50</v>
@@ -7317,19 +7401,19 @@
         <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>8</v>
@@ -7346,13 +7430,13 @@
         <v>37</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>55</v>
@@ -7364,19 +7448,19 @@
         <v>8</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>8</v>
@@ -7393,13 +7477,13 @@
         <v>37</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>59</v>
@@ -7411,19 +7495,19 @@
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>8</v>
@@ -7440,13 +7524,13 @@
         <v>37</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>10</v>
@@ -7458,19 +7542,19 @@
       